--- a/file/工程量计算底稿.xlsx
+++ b/file/工程量计算底稿.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:dbsheet="http://web.wps.cn/et/2021/dbsheet">
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr codeName="ThisWorkbook"/>
   <workbookProtection workbookAlgorithmName="SHA-512" workbookHashValue="7MXRHbS5nQytCafyzc+8MoP5nJERj7tWVags7l5iijVgWPTMNRXEw3eHOy+Qd4u0cFet7W4rvaDloYZV7uLRSg==" workbookSaltValue="7tKLOdSHVkU+33jMcgm4Jw==" workbookSpinCount="100000" lockStructure="1"/>
   <bookViews>
-    <workbookView windowWidth="27945" windowHeight="12375"/>
+    <workbookView windowWidth="27945" windowHeight="12375" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="工程量计算底稿" sheetId="1" r:id="rId1"/>
@@ -301,13 +301,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="12"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -317,6 +310,13 @@
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <u/>
@@ -940,7 +940,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="41">
+  <cellXfs count="40">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1012,14 +1012,6 @@
       <alignment horizontal="left" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1038,54 +1030,57 @@
       <alignment vertical="center" wrapText="1"/>
       <protection hidden="1"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center" wrapText="1"/>
+      <protection locked="0" hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center" wrapText="1"/>
+      <protection locked="0" hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0" hidden="1"/>
+    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center" wrapText="1"/>
-      <protection locked="0" hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0" hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center" wrapText="1"/>
-      <protection locked="0" hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center" wrapText="1"/>
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center" wrapText="1"/>
       <protection hidden="1"/>
     </xf>
@@ -1638,7 +1633,7 @@
     </dxf>
   </dxfs>
   <tableStyles count="2" defaultTableStyle="表样式 1" defaultPivotStyle="PivotStylePreset2_Accent1">
-    <tableStyle name="表样式 1" pivot="0" count="1" xr9:uid="{9A4601F8-6C23-436C-B2E1-982BB881619E}">
+    <tableStyle name="表样式 1" pivot="0" count="1" xr9:uid="{6DDA27A9-2846-4FA3-8B9A-E7DBF182EF96}">
       <tableStyleElement type="wholeTable" dxfId="12"/>
     </tableStyle>
     <tableStyle name="PivotStylePreset2_Accent1" table="0" count="10" xr9:uid="{267968C8-6FFD-4C36-ACC1-9EA1FD1885CA}">
@@ -1948,10 +1943,10 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:J29"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" zoomScaleSheetLayoutView="115" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A16" activePane="bottomLeft" state="frozen"/>
+    <sheetView zoomScaleSheetLayoutView="115" workbookViewId="0">
+      <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="E29" sqref="E29"/>
+      <selection pane="bottomLeft" activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="18" customHeight="1"/>
@@ -1993,790 +1988,790 @@
         <v>2</v>
       </c>
       <c r="E2" s="20"/>
-      <c r="F2" s="21"/>
-      <c r="G2" s="21"/>
-      <c r="H2" s="22"/>
-      <c r="I2" s="38"/>
-      <c r="J2" s="21"/>
+      <c r="F2" s="32"/>
+      <c r="G2" s="32"/>
+      <c r="H2" s="33"/>
+      <c r="I2" s="32"/>
+      <c r="J2" s="32"/>
     </row>
     <row r="3" s="10" customFormat="1" ht="18.75" customHeight="1" spans="1:10">
-      <c r="A3" s="23" t="s">
+      <c r="A3" s="21" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="23" t="s">
+      <c r="B3" s="21" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="23" t="s">
+      <c r="C3" s="21" t="s">
         <v>5</v>
       </c>
-      <c r="D3" s="24" t="s">
+      <c r="D3" s="22" t="s">
         <v>6</v>
       </c>
-      <c r="E3" s="24" t="s">
+      <c r="E3" s="22" t="s">
         <v>7</v>
       </c>
-      <c r="F3" s="23" t="s">
+      <c r="F3" s="21" t="s">
         <v>8</v>
       </c>
-      <c r="G3" s="23" t="s">
+      <c r="G3" s="21" t="s">
         <v>9</v>
       </c>
-      <c r="H3" s="23" t="s">
+      <c r="H3" s="21" t="s">
         <v>10</v>
       </c>
-      <c r="I3" s="23" t="s">
+      <c r="I3" s="21" t="s">
         <v>11</v>
       </c>
-      <c r="J3" s="24" t="s">
+      <c r="J3" s="22" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="4" s="11" customFormat="1" customHeight="1" spans="1:10">
-      <c r="A4" s="25">
+      <c r="A4" s="23">
         <f t="shared" ref="A4:A29" si="0">ROW()-3</f>
         <v>1</v>
       </c>
-      <c r="B4" s="26" t="s">
+      <c r="B4" s="24" t="s">
         <v>13</v>
       </c>
-      <c r="C4" s="27" t="str" cm="1">
+      <c r="C4" s="25" t="str" cm="1">
         <f ca="1" t="array" ref="C4">IF(ISBLANK(B4),INDIRECT("C"&amp;ROW()-1),B4)</f>
         <v>卫生洁具</v>
       </c>
-      <c r="D4" s="28"/>
-      <c r="E4" s="28" t="s">
+      <c r="D4" s="26"/>
+      <c r="E4" s="26" t="s">
         <v>14</v>
       </c>
-      <c r="F4" s="29"/>
-      <c r="G4" s="27" t="e">
+      <c r="F4" s="34"/>
+      <c r="G4" s="25" t="e">
         <f ca="1" t="shared" ref="G4:G29" si="1">IF(ISBLANK(F4),EVALUATE(E4),EVALUATE(E4)*F4)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="H4" s="29"/>
-      <c r="I4" s="39" t="str">
+      <c r="H4" s="34"/>
+      <c r="I4" s="38" t="str">
         <f ca="1" t="shared" ref="I4:I29" si="2">IF(ISBLANK(H4),IFERROR(G4,"")," ")</f>
         <v/>
       </c>
-      <c r="J4" s="26"/>
+      <c r="J4" s="24"/>
     </row>
     <row r="5" s="11" customFormat="1" ht="16" customHeight="1" spans="1:10">
-      <c r="A5" s="25">
+      <c r="A5" s="23">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="B5" s="30"/>
-      <c r="C5" s="27" t="str" cm="1">
+      <c r="B5" s="27"/>
+      <c r="C5" s="25" t="str" cm="1">
         <f ca="1" t="array" ref="C5">IF(ISBLANK(B5),INDIRECT("C"&amp;ROW()-1),B5)</f>
         <v>卫生洁具</v>
       </c>
-      <c r="D5" s="28" t="s">
+      <c r="D5" s="26" t="s">
         <v>15</v>
       </c>
-      <c r="E5" s="28" t="s">
+      <c r="E5" s="26" t="s">
         <v>16</v>
       </c>
-      <c r="F5" s="29"/>
-      <c r="G5" s="27">
+      <c r="F5" s="34"/>
+      <c r="G5" s="25">
         <f ca="1" t="shared" si="1"/>
         <v>11</v>
       </c>
-      <c r="H5" s="29"/>
-      <c r="I5" s="39">
+      <c r="H5" s="34"/>
+      <c r="I5" s="38">
         <f ca="1" t="shared" si="2"/>
         <v>11</v>
       </c>
-      <c r="J5" s="26"/>
+      <c r="J5" s="24"/>
     </row>
     <row r="6" s="11" customFormat="1" ht="16" customHeight="1" spans="1:10">
-      <c r="A6" s="25">
+      <c r="A6" s="23">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="B6" s="30"/>
-      <c r="C6" s="27" t="str" cm="1">
+      <c r="B6" s="27"/>
+      <c r="C6" s="25" t="str" cm="1">
         <f ca="1" t="array" ref="C6">IF(ISBLANK(B6),INDIRECT("C"&amp;ROW()-1),B6)</f>
         <v>卫生洁具</v>
       </c>
-      <c r="D6" s="28" t="s">
+      <c r="D6" s="26" t="s">
         <v>17</v>
       </c>
-      <c r="E6" s="28" t="s">
+      <c r="E6" s="26" t="s">
         <v>18</v>
       </c>
-      <c r="F6" s="29"/>
-      <c r="G6" s="27">
+      <c r="F6" s="34"/>
+      <c r="G6" s="25">
         <f ca="1" t="shared" si="1"/>
         <v>15</v>
       </c>
-      <c r="H6" s="29"/>
-      <c r="I6" s="39">
+      <c r="H6" s="34"/>
+      <c r="I6" s="38">
         <f ca="1" t="shared" si="2"/>
         <v>15</v>
       </c>
-      <c r="J6" s="26"/>
+      <c r="J6" s="24"/>
     </row>
     <row r="7" s="11" customFormat="1" ht="16" customHeight="1" spans="1:10">
-      <c r="A7" s="25">
+      <c r="A7" s="23">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="B7" s="30"/>
-      <c r="C7" s="27" t="str" cm="1">
+      <c r="B7" s="27"/>
+      <c r="C7" s="25" t="str" cm="1">
         <f ca="1" t="array" ref="C7">IF(ISBLANK(B7),INDIRECT("C"&amp;ROW()-1),B7)</f>
         <v>卫生洁具</v>
       </c>
-      <c r="D7" s="28" t="s">
+      <c r="D7" s="26" t="s">
         <v>19</v>
       </c>
-      <c r="E7" s="28">
+      <c r="E7" s="26">
         <v>3</v>
       </c>
-      <c r="F7" s="29"/>
-      <c r="G7" s="27">
+      <c r="F7" s="34"/>
+      <c r="G7" s="25">
         <f ca="1" t="shared" si="1"/>
         <v>3</v>
       </c>
-      <c r="H7" s="29"/>
-      <c r="I7" s="39">
+      <c r="H7" s="34"/>
+      <c r="I7" s="38">
         <f ca="1" t="shared" si="2"/>
         <v>3</v>
       </c>
-      <c r="J7" s="26"/>
+      <c r="J7" s="24"/>
     </row>
     <row r="8" s="11" customFormat="1" ht="16" customHeight="1" spans="1:10">
-      <c r="A8" s="25">
+      <c r="A8" s="23">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="B8" s="26"/>
-      <c r="C8" s="27" t="str" cm="1">
+      <c r="B8" s="24"/>
+      <c r="C8" s="25" t="str" cm="1">
         <f ca="1" t="array" ref="C8">IF(ISBLANK(B8),INDIRECT("C"&amp;ROW()-1),B8)</f>
         <v>卫生洁具</v>
       </c>
-      <c r="D8" s="28" t="s">
+      <c r="D8" s="26" t="s">
         <v>20</v>
       </c>
-      <c r="E8" s="28" t="s">
+      <c r="E8" s="26" t="s">
         <v>21</v>
       </c>
-      <c r="F8" s="29"/>
-      <c r="G8" s="27">
+      <c r="F8" s="34"/>
+      <c r="G8" s="25">
         <f ca="1" t="shared" si="1"/>
         <v>15</v>
       </c>
-      <c r="H8" s="29"/>
-      <c r="I8" s="39">
+      <c r="H8" s="34"/>
+      <c r="I8" s="38">
         <f ca="1" t="shared" si="2"/>
         <v>15</v>
       </c>
-      <c r="J8" s="26"/>
+      <c r="J8" s="24"/>
     </row>
     <row r="9" s="11" customFormat="1" ht="16" customHeight="1" spans="1:10">
-      <c r="A9" s="25">
+      <c r="A9" s="23">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="B9" s="26"/>
-      <c r="C9" s="27" t="str">
+      <c r="B9" s="24"/>
+      <c r="C9" s="25" t="str">
         <f ca="1" t="shared" ref="C9:C29" si="3">IF(ISBLANK(B9),INDIRECT("C"&amp;ROW()-1),B9)</f>
         <v>卫生洁具</v>
       </c>
-      <c r="D9" s="28" t="s">
+      <c r="D9" s="26" t="s">
         <v>22</v>
       </c>
-      <c r="E9" s="28" t="s">
+      <c r="E9" s="26" t="s">
         <v>23</v>
       </c>
-      <c r="F9" s="29"/>
-      <c r="G9" s="27">
+      <c r="F9" s="34"/>
+      <c r="G9" s="25">
         <f ca="1" t="shared" si="1"/>
         <v>17</v>
       </c>
-      <c r="H9" s="29"/>
-      <c r="I9" s="39">
+      <c r="H9" s="34"/>
+      <c r="I9" s="38">
         <f ca="1" t="shared" si="2"/>
         <v>17</v>
       </c>
-      <c r="J9" s="26"/>
+      <c r="J9" s="24"/>
     </row>
     <row r="10" s="11" customFormat="1" ht="16" customHeight="1" spans="1:10">
-      <c r="A10" s="25">
+      <c r="A10" s="23">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="B10" s="26"/>
-      <c r="C10" s="27" t="str">
+      <c r="B10" s="24"/>
+      <c r="C10" s="25" t="str">
         <f ca="1" t="shared" si="3"/>
         <v>卫生洁具</v>
       </c>
-      <c r="D10" s="28"/>
-      <c r="E10" s="28" t="s">
+      <c r="D10" s="26"/>
+      <c r="E10" s="26" t="s">
         <v>24</v>
       </c>
-      <c r="F10" s="29"/>
-      <c r="G10" s="27" t="e">
+      <c r="F10" s="34"/>
+      <c r="G10" s="25" t="e">
         <f ca="1" t="shared" si="1"/>
         <v>#VALUE!</v>
       </c>
-      <c r="H10" s="29"/>
-      <c r="I10" s="39" t="str">
+      <c r="H10" s="34"/>
+      <c r="I10" s="38" t="str">
         <f ca="1" t="shared" si="2"/>
         <v/>
       </c>
-      <c r="J10" s="26"/>
+      <c r="J10" s="24"/>
     </row>
     <row r="11" s="11" customFormat="1" ht="16" customHeight="1" spans="1:10">
-      <c r="A11" s="25">
+      <c r="A11" s="23">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="B11" s="26"/>
-      <c r="C11" s="27" t="str">
+      <c r="B11" s="24"/>
+      <c r="C11" s="25" t="str">
         <f ca="1" t="shared" si="3"/>
         <v>卫生洁具</v>
       </c>
-      <c r="D11" s="28" t="s">
+      <c r="D11" s="26" t="s">
         <v>15</v>
       </c>
-      <c r="E11" s="28" t="s">
+      <c r="E11" s="26" t="s">
         <v>25</v>
       </c>
-      <c r="F11" s="29">
+      <c r="F11" s="34">
         <v>9</v>
       </c>
-      <c r="G11" s="27">
+      <c r="G11" s="25">
         <f ca="1" t="shared" si="1"/>
         <v>252</v>
       </c>
-      <c r="H11" s="29"/>
-      <c r="I11" s="39">
+      <c r="H11" s="34"/>
+      <c r="I11" s="38">
         <f ca="1" t="shared" si="2"/>
         <v>252</v>
       </c>
-      <c r="J11" s="26"/>
+      <c r="J11" s="24"/>
     </row>
     <row r="12" s="11" customFormat="1" ht="16" customHeight="1" spans="1:10">
-      <c r="A12" s="25">
+      <c r="A12" s="23">
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
-      <c r="B12" s="26"/>
-      <c r="C12" s="27" t="str">
+      <c r="B12" s="24"/>
+      <c r="C12" s="25" t="str">
         <f ca="1" t="shared" si="3"/>
         <v>卫生洁具</v>
       </c>
-      <c r="D12" s="28" t="s">
+      <c r="D12" s="26" t="s">
         <v>26</v>
       </c>
-      <c r="E12" s="28" t="s">
+      <c r="E12" s="26" t="s">
         <v>27</v>
       </c>
-      <c r="F12" s="29">
+      <c r="F12" s="34">
         <v>9</v>
       </c>
-      <c r="G12" s="27">
+      <c r="G12" s="25">
         <f ca="1" t="shared" si="1"/>
         <v>153</v>
       </c>
-      <c r="H12" s="29"/>
-      <c r="I12" s="39">
+      <c r="H12" s="34"/>
+      <c r="I12" s="38">
         <f ca="1" t="shared" si="2"/>
         <v>153</v>
       </c>
-      <c r="J12" s="26"/>
+      <c r="J12" s="24"/>
     </row>
     <row r="13" customHeight="1" spans="1:10">
-      <c r="A13" s="31">
+      <c r="A13" s="28">
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="B13" s="26"/>
-      <c r="C13" s="32" t="str">
+      <c r="B13" s="24"/>
+      <c r="C13" s="29" t="str">
         <f ca="1" t="shared" si="3"/>
         <v>卫生洁具</v>
       </c>
-      <c r="D13" s="28" t="s">
+      <c r="D13" s="26" t="s">
         <v>17</v>
       </c>
-      <c r="E13" s="28" t="s">
+      <c r="E13" s="26" t="s">
         <v>28</v>
       </c>
-      <c r="F13" s="29">
+      <c r="F13" s="34">
         <v>9</v>
       </c>
-      <c r="G13" s="32">
+      <c r="G13" s="29">
         <f ca="1" t="shared" si="1"/>
         <v>216</v>
       </c>
-      <c r="H13" s="33"/>
-      <c r="I13" s="39">
+      <c r="H13" s="35"/>
+      <c r="I13" s="38">
         <f ca="1" t="shared" si="2"/>
         <v>216</v>
       </c>
-      <c r="J13" s="35"/>
+      <c r="J13" s="30"/>
     </row>
     <row r="14" customHeight="1" spans="1:10">
-      <c r="A14" s="31">
+      <c r="A14" s="28">
         <f t="shared" si="0"/>
         <v>11</v>
       </c>
-      <c r="B14" s="26"/>
-      <c r="C14" s="32" t="str">
+      <c r="B14" s="24"/>
+      <c r="C14" s="29" t="str">
         <f ca="1" t="shared" si="3"/>
         <v>卫生洁具</v>
       </c>
-      <c r="D14" s="28" t="s">
+      <c r="D14" s="26" t="s">
         <v>19</v>
       </c>
-      <c r="E14" s="28" t="s">
+      <c r="E14" s="26" t="s">
         <v>29</v>
       </c>
-      <c r="F14" s="29">
+      <c r="F14" s="34">
         <v>9</v>
       </c>
-      <c r="G14" s="32">
+      <c r="G14" s="29">
         <f ca="1" t="shared" si="1"/>
         <v>180</v>
       </c>
-      <c r="H14" s="34"/>
-      <c r="I14" s="39">
+      <c r="H14" s="36"/>
+      <c r="I14" s="38">
         <f ca="1" t="shared" si="2"/>
         <v>180</v>
       </c>
-      <c r="J14" s="35"/>
+      <c r="J14" s="30"/>
     </row>
     <row r="15" customHeight="1" spans="1:10">
-      <c r="A15" s="31">
+      <c r="A15" s="28">
         <f t="shared" si="0"/>
         <v>12</v>
       </c>
-      <c r="B15" s="26"/>
-      <c r="C15" s="32" t="str">
+      <c r="B15" s="24"/>
+      <c r="C15" s="29" t="str">
         <f ca="1" t="shared" si="3"/>
         <v>卫生洁具</v>
       </c>
-      <c r="D15" s="28" t="s">
+      <c r="D15" s="26" t="s">
         <v>20</v>
       </c>
-      <c r="E15" s="28" t="s">
+      <c r="E15" s="26" t="s">
         <v>30</v>
       </c>
-      <c r="F15" s="29">
+      <c r="F15" s="34">
         <v>9</v>
       </c>
-      <c r="G15" s="32">
+      <c r="G15" s="29">
         <f ca="1" t="shared" si="1"/>
         <v>261</v>
       </c>
-      <c r="H15" s="34"/>
-      <c r="I15" s="39">
+      <c r="H15" s="36"/>
+      <c r="I15" s="38">
         <f ca="1" t="shared" si="2"/>
         <v>261</v>
       </c>
-      <c r="J15" s="35"/>
+      <c r="J15" s="30"/>
     </row>
     <row r="16" customHeight="1" spans="1:10">
-      <c r="A16" s="31">
+      <c r="A16" s="28">
         <f t="shared" si="0"/>
         <v>13</v>
       </c>
-      <c r="B16" s="26"/>
-      <c r="C16" s="32" t="str">
+      <c r="B16" s="24"/>
+      <c r="C16" s="29" t="str">
         <f ca="1" t="shared" si="3"/>
         <v>卫生洁具</v>
       </c>
-      <c r="D16" s="28" t="s">
+      <c r="D16" s="26" t="s">
         <v>22</v>
       </c>
-      <c r="E16" s="28" t="s">
+      <c r="E16" s="26" t="s">
         <v>31</v>
       </c>
-      <c r="F16" s="29">
+      <c r="F16" s="34">
         <v>9</v>
       </c>
-      <c r="G16" s="32">
+      <c r="G16" s="29">
         <f ca="1" t="shared" si="1"/>
         <v>207</v>
       </c>
-      <c r="H16" s="34"/>
-      <c r="I16" s="40">
+      <c r="H16" s="36"/>
+      <c r="I16" s="39">
         <f ca="1" t="shared" si="2"/>
         <v>207</v>
       </c>
-      <c r="J16" s="35"/>
+      <c r="J16" s="30"/>
     </row>
     <row r="17" customHeight="1" spans="1:10">
-      <c r="A17" s="31">
+      <c r="A17" s="28">
         <f t="shared" si="0"/>
         <v>14</v>
       </c>
-      <c r="B17" s="26" t="s">
+      <c r="B17" s="24" t="s">
         <v>32</v>
       </c>
-      <c r="C17" s="32" t="str">
+      <c r="C17" s="29" t="str">
         <f ca="1" t="shared" si="3"/>
         <v>给水管道</v>
       </c>
-      <c r="D17" s="28"/>
-      <c r="E17" s="28" t="s">
+      <c r="D17" s="26"/>
+      <c r="E17" s="26" t="s">
         <v>14</v>
       </c>
-      <c r="F17" s="29"/>
-      <c r="G17" s="32" t="e">
+      <c r="F17" s="34"/>
+      <c r="G17" s="29" t="e">
         <f ca="1" t="shared" si="1"/>
         <v>#VALUE!</v>
       </c>
-      <c r="H17" s="34"/>
-      <c r="I17" s="40" t="str">
+      <c r="H17" s="36"/>
+      <c r="I17" s="39" t="str">
         <f ca="1" t="shared" si="2"/>
         <v/>
       </c>
-      <c r="J17" s="35"/>
+      <c r="J17" s="30"/>
     </row>
     <row r="18" customHeight="1" spans="1:10">
-      <c r="A18" s="31">
+      <c r="A18" s="28">
         <f t="shared" si="0"/>
         <v>15</v>
       </c>
-      <c r="B18" s="35"/>
-      <c r="C18" s="32" t="str">
+      <c r="B18" s="30"/>
+      <c r="C18" s="29" t="str">
         <f ca="1" t="shared" si="3"/>
         <v>给水管道</v>
       </c>
-      <c r="D18" s="28" t="s">
+      <c r="D18" s="26" t="s">
         <v>33</v>
       </c>
-      <c r="E18" s="28" t="s">
+      <c r="E18" s="26" t="s">
         <v>34</v>
       </c>
-      <c r="F18" s="29"/>
-      <c r="G18" s="32">
+      <c r="F18" s="34"/>
+      <c r="G18" s="29">
         <f ca="1" t="shared" si="1"/>
         <v>26.7</v>
       </c>
-      <c r="H18" s="34"/>
-      <c r="I18" s="40">
+      <c r="H18" s="36"/>
+      <c r="I18" s="39">
         <f ca="1" t="shared" si="2"/>
         <v>26.7</v>
       </c>
-      <c r="J18" s="35"/>
+      <c r="J18" s="30"/>
     </row>
     <row r="19" customHeight="1" spans="1:10">
-      <c r="A19" s="31">
+      <c r="A19" s="28">
         <f t="shared" si="0"/>
         <v>16</v>
       </c>
-      <c r="B19" s="35"/>
-      <c r="C19" s="32" t="str">
+      <c r="B19" s="30"/>
+      <c r="C19" s="29" t="str">
         <f ca="1" t="shared" si="3"/>
         <v>给水管道</v>
       </c>
-      <c r="D19" s="28" t="s">
+      <c r="D19" s="26" t="s">
         <v>35</v>
       </c>
-      <c r="E19" s="28" t="s">
+      <c r="E19" s="26" t="s">
         <v>36</v>
       </c>
-      <c r="F19" s="29"/>
-      <c r="G19" s="32">
+      <c r="F19" s="34"/>
+      <c r="G19" s="29">
         <f ca="1" t="shared" si="1"/>
         <v>21.9</v>
       </c>
-      <c r="H19" s="34"/>
-      <c r="I19" s="40">
+      <c r="H19" s="36"/>
+      <c r="I19" s="39">
         <f ca="1" t="shared" si="2"/>
         <v>21.9</v>
       </c>
-      <c r="J19" s="35"/>
+      <c r="J19" s="30"/>
     </row>
     <row r="20" customHeight="1" spans="1:10">
-      <c r="A20" s="31">
+      <c r="A20" s="28">
         <f t="shared" si="0"/>
         <v>17</v>
       </c>
-      <c r="B20" s="35"/>
-      <c r="C20" s="32" t="str">
+      <c r="B20" s="30"/>
+      <c r="C20" s="29" t="str">
         <f ca="1" t="shared" si="3"/>
         <v>给水管道</v>
       </c>
-      <c r="D20" s="28" t="s">
+      <c r="D20" s="26" t="s">
         <v>37</v>
       </c>
-      <c r="E20" s="28" t="s">
+      <c r="E20" s="26" t="s">
         <v>38</v>
       </c>
-      <c r="F20" s="29"/>
-      <c r="G20" s="32">
+      <c r="F20" s="34"/>
+      <c r="G20" s="29">
         <f ca="1" t="shared" si="1"/>
         <v>57</v>
       </c>
-      <c r="H20" s="34"/>
-      <c r="I20" s="40">
+      <c r="H20" s="36"/>
+      <c r="I20" s="39">
         <f ca="1" t="shared" si="2"/>
         <v>57</v>
       </c>
-      <c r="J20" s="35"/>
+      <c r="J20" s="30"/>
     </row>
     <row r="21" customHeight="1" spans="1:10">
-      <c r="A21" s="31">
+      <c r="A21" s="28">
         <f t="shared" si="0"/>
         <v>18</v>
       </c>
-      <c r="B21" s="35"/>
-      <c r="C21" s="32" t="str">
+      <c r="B21" s="30"/>
+      <c r="C21" s="29" t="str">
         <f ca="1" t="shared" si="3"/>
         <v>给水管道</v>
       </c>
-      <c r="D21" s="28"/>
-      <c r="E21" s="28" t="s">
+      <c r="D21" s="26"/>
+      <c r="E21" s="26" t="s">
         <v>24</v>
       </c>
-      <c r="F21" s="29"/>
-      <c r="G21" s="32" t="e">
+      <c r="F21" s="34"/>
+      <c r="G21" s="29" t="e">
         <f ca="1" t="shared" si="1"/>
         <v>#VALUE!</v>
       </c>
-      <c r="H21" s="34"/>
-      <c r="I21" s="40" t="str">
+      <c r="H21" s="36"/>
+      <c r="I21" s="39" t="str">
         <f ca="1" t="shared" si="2"/>
         <v/>
       </c>
-      <c r="J21" s="35"/>
+      <c r="J21" s="30"/>
     </row>
     <row r="22" customHeight="1" spans="1:10">
-      <c r="A22" s="31">
+      <c r="A22" s="28">
         <f t="shared" si="0"/>
         <v>19</v>
       </c>
-      <c r="B22" s="35"/>
-      <c r="C22" s="32" t="str">
+      <c r="B22" s="30"/>
+      <c r="C22" s="29" t="str">
         <f ca="1" t="shared" si="3"/>
         <v>给水管道</v>
       </c>
-      <c r="D22" s="28" t="s">
+      <c r="D22" s="26" t="s">
         <v>33</v>
       </c>
-      <c r="E22" s="28" t="s">
+      <c r="E22" s="26" t="s">
         <v>39</v>
       </c>
-      <c r="F22" s="29">
+      <c r="F22" s="34">
         <v>9</v>
       </c>
-      <c r="G22" s="32">
+      <c r="G22" s="29">
         <f ca="1" t="shared" si="1"/>
         <v>183.6</v>
       </c>
-      <c r="H22" s="34"/>
-      <c r="I22" s="40">
+      <c r="H22" s="36"/>
+      <c r="I22" s="39">
         <f ca="1" t="shared" si="2"/>
         <v>183.6</v>
       </c>
-      <c r="J22" s="35"/>
+      <c r="J22" s="30"/>
     </row>
     <row r="23" customHeight="1" spans="1:10">
-      <c r="A23" s="31">
+      <c r="A23" s="28">
         <f t="shared" si="0"/>
         <v>20</v>
       </c>
-      <c r="B23" s="35"/>
-      <c r="C23" s="32" t="str">
+      <c r="B23" s="30"/>
+      <c r="C23" s="29" t="str">
         <f ca="1" t="shared" si="3"/>
         <v>给水管道</v>
       </c>
-      <c r="D23" s="28" t="s">
+      <c r="D23" s="26" t="s">
         <v>35</v>
       </c>
-      <c r="E23" s="28" t="s">
+      <c r="E23" s="26" t="s">
         <v>40</v>
       </c>
-      <c r="F23" s="29">
+      <c r="F23" s="34">
         <v>9</v>
       </c>
-      <c r="G23" s="32">
+      <c r="G23" s="29">
         <f ca="1" t="shared" si="1"/>
         <v>203.4</v>
       </c>
-      <c r="H23" s="34"/>
-      <c r="I23" s="40">
+      <c r="H23" s="36"/>
+      <c r="I23" s="39">
         <f ca="1" t="shared" si="2"/>
         <v>203.4</v>
       </c>
-      <c r="J23" s="35"/>
+      <c r="J23" s="30"/>
     </row>
     <row r="24" customHeight="1" spans="1:10">
-      <c r="A24" s="31">
+      <c r="A24" s="28">
         <f t="shared" si="0"/>
         <v>21</v>
       </c>
-      <c r="B24" s="35"/>
-      <c r="C24" s="36" t="str">
+      <c r="B24" s="30"/>
+      <c r="C24" s="31" t="str">
         <f ca="1" t="shared" si="3"/>
         <v>给水管道</v>
       </c>
-      <c r="D24" s="35" t="s">
+      <c r="D24" s="30" t="s">
         <v>41</v>
       </c>
       <c r="E24" s="37" t="s">
         <v>42</v>
       </c>
-      <c r="F24" s="33">
+      <c r="F24" s="35">
         <v>9</v>
       </c>
-      <c r="G24" s="36">
+      <c r="G24" s="31">
         <f ca="1" t="shared" si="1"/>
         <v>216</v>
       </c>
-      <c r="H24" s="34"/>
-      <c r="I24" s="40">
+      <c r="H24" s="36"/>
+      <c r="I24" s="39">
         <f ca="1" t="shared" si="2"/>
         <v>216</v>
       </c>
-      <c r="J24" s="35"/>
+      <c r="J24" s="30"/>
     </row>
     <row r="25" customHeight="1" spans="1:10">
-      <c r="A25" s="31">
+      <c r="A25" s="28">
         <f t="shared" si="0"/>
         <v>22</v>
       </c>
-      <c r="B25" s="35"/>
-      <c r="C25" s="36" t="str">
+      <c r="B25" s="30"/>
+      <c r="C25" s="31" t="str">
         <f ca="1" t="shared" si="3"/>
         <v>给水管道</v>
       </c>
-      <c r="D25" s="35" t="s">
+      <c r="D25" s="30" t="s">
         <v>43</v>
       </c>
       <c r="E25" s="37" t="s">
         <v>44</v>
       </c>
-      <c r="F25" s="33">
+      <c r="F25" s="35">
         <v>9</v>
       </c>
-      <c r="G25" s="36">
+      <c r="G25" s="31">
         <f ca="1" t="shared" si="1"/>
         <v>61.2</v>
       </c>
-      <c r="H25" s="34"/>
-      <c r="I25" s="40">
+      <c r="H25" s="36"/>
+      <c r="I25" s="39">
         <f ca="1" t="shared" si="2"/>
         <v>61.2</v>
       </c>
-      <c r="J25" s="35"/>
+      <c r="J25" s="30"/>
     </row>
     <row r="26" customHeight="1" spans="1:10">
-      <c r="A26" s="31">
+      <c r="A26" s="28">
         <f t="shared" si="0"/>
         <v>23</v>
       </c>
-      <c r="B26" s="35"/>
-      <c r="C26" s="36" t="str">
+      <c r="B26" s="30"/>
+      <c r="C26" s="31" t="str">
         <f ca="1" t="shared" si="3"/>
         <v>给水管道</v>
       </c>
-      <c r="D26" s="35" t="s">
+      <c r="D26" s="30" t="s">
         <v>45</v>
       </c>
       <c r="E26" s="37" t="s">
         <v>46</v>
       </c>
-      <c r="F26" s="33">
+      <c r="F26" s="35">
         <v>9</v>
       </c>
-      <c r="G26" s="36">
+      <c r="G26" s="31">
         <f ca="1" t="shared" si="1"/>
         <v>107.1</v>
       </c>
-      <c r="H26" s="34"/>
-      <c r="I26" s="40">
+      <c r="H26" s="36"/>
+      <c r="I26" s="39">
         <f ca="1" t="shared" si="2"/>
         <v>107.1</v>
       </c>
-      <c r="J26" s="35"/>
+      <c r="J26" s="30"/>
     </row>
     <row r="27" customHeight="1" spans="1:10">
-      <c r="A27" s="31">
+      <c r="A27" s="28">
         <f t="shared" si="0"/>
         <v>24</v>
       </c>
-      <c r="B27" s="35" t="s">
+      <c r="B27" s="30" t="s">
         <v>47</v>
       </c>
-      <c r="C27" s="36" t="str">
+      <c r="C27" s="31" t="str">
         <f ca="1" t="shared" si="3"/>
         <v>排水管道</v>
       </c>
-      <c r="D27" s="35"/>
+      <c r="D27" s="30"/>
       <c r="E27" s="37"/>
-      <c r="F27" s="33"/>
-      <c r="G27" s="36" t="e">
+      <c r="F27" s="35"/>
+      <c r="G27" s="31" t="e">
         <f ca="1" t="shared" si="1"/>
         <v>#VALUE!</v>
       </c>
-      <c r="H27" s="34"/>
-      <c r="I27" s="40" t="str">
+      <c r="H27" s="36"/>
+      <c r="I27" s="39" t="str">
         <f ca="1" t="shared" si="2"/>
         <v/>
       </c>
-      <c r="J27" s="35"/>
+      <c r="J27" s="30"/>
     </row>
     <row r="28" customHeight="1" spans="1:10">
-      <c r="A28" s="31">
+      <c r="A28" s="28">
         <f t="shared" si="0"/>
         <v>25</v>
       </c>
-      <c r="B28" s="35"/>
-      <c r="C28" s="36" t="str">
+      <c r="B28" s="30"/>
+      <c r="C28" s="31" t="str">
         <f ca="1" t="shared" si="3"/>
         <v>排水管道</v>
       </c>
-      <c r="D28" s="35" t="s">
+      <c r="D28" s="30" t="s">
         <v>48</v>
       </c>
       <c r="E28" s="37">
         <v>56</v>
       </c>
-      <c r="F28" s="33"/>
-      <c r="G28" s="36">
+      <c r="F28" s="35"/>
+      <c r="G28" s="31">
         <f ca="1" t="shared" si="1"/>
         <v>56</v>
       </c>
-      <c r="H28" s="34"/>
-      <c r="I28" s="40">
+      <c r="H28" s="36"/>
+      <c r="I28" s="39">
         <f ca="1" t="shared" si="2"/>
         <v>56</v>
       </c>
-      <c r="J28" s="35"/>
+      <c r="J28" s="30"/>
     </row>
     <row r="29" customHeight="1" spans="1:10">
-      <c r="A29" s="31">
+      <c r="A29" s="28">
         <f t="shared" si="0"/>
         <v>26</v>
       </c>
-      <c r="B29" s="35"/>
-      <c r="C29" s="36" t="str">
+      <c r="B29" s="30"/>
+      <c r="C29" s="31" t="str">
         <f ca="1" t="shared" si="3"/>
         <v>排水管道</v>
       </c>
-      <c r="D29" s="35" t="s">
+      <c r="D29" s="30" t="s">
         <v>49</v>
       </c>
       <c r="E29" s="37" t="s">
         <v>50</v>
       </c>
-      <c r="F29" s="33"/>
-      <c r="G29" s="36">
+      <c r="F29" s="35"/>
+      <c r="G29" s="31">
         <f ca="1" t="shared" si="1"/>
         <v>134</v>
       </c>
-      <c r="H29" s="34"/>
-      <c r="I29" s="40">
+      <c r="H29" s="36"/>
+      <c r="I29" s="39">
         <f ca="1" t="shared" si="2"/>
         <v>134</v>
       </c>
-      <c r="J29" s="35"/>
+      <c r="J29" s="30"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="PJ404qI0o12kkEBef+5+gduTiKMSkJXQuaA9/31QSCRNUWlri9kPrXXalkwPkQhKaLOUtYk12SHnT8c1ZUTEsA==" saltValue="gyYqZ4D5LQCQSbxSizrccQ==" spinCount="100000" sheet="1" formatCells="0" formatRows="0" insertRows="0" deleteRows="0" sort="0" autoFilter="0" pivotTables="0" objects="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="b8RrwQ8RFP+L2nlFE3z4p/SRht1f54Cu7iqPmMbF7DQyoZAWJFA721qfrZ45RgZGTDyRfcke33QAnJQYkeKauw==" saltValue="Ct/0J66qJDYTLoqupGChPA==" spinCount="100000" sheet="1" formatCells="0" formatRows="0" insertRows="0" deleteRows="0" sort="0" autoFilter="0" pivotTables="0" objects="1"/>
   <protectedRanges>
     <protectedRange sqref="B4:B1964 D4:D1964 E4:E1964 F4:F1964 H4:H1964" name="允许编辑" securityDescriptor="O:WDG:WDD:"/>
   </protectedRanges>
@@ -2861,10 +2856,10 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:C37"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="A21" sqref="A21"/>
+      <selection pane="bottomLeft" activeCell="B25" sqref="B25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="22" customHeight="1" outlineLevelCol="2"/>
@@ -2906,7 +2901,7 @@
     </row>
     <row r="4" ht="23" customHeight="1" spans="1:3">
       <c r="A4" s="8" t="str" cm="1">
-        <f ca="1" t="array" ref="A4:C21">_xlfn.GROUPBY(工程量计算底稿!C4:D1964,工程量计算底稿!I4:I1964,_xleta.sum,1,0)</f>
+        <f ca="1" t="array" ref="A4:C22">_xlfn.GROUPBY(工程量计算底稿!C4:D1964,工程量计算底稿!I4:I1964,_xleta.sum)</f>
         <v>给水管道</v>
       </c>
       <c r="B4" s="8" t="str">
@@ -3103,7 +3098,17 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" ht="18" customHeight="1"/>
+    <row r="22" ht="18" customHeight="1" spans="1:3">
+      <c r="A22" s="4" t="str">
+        <v>总计</v>
+      </c>
+      <c r="B22" s="4" t="str">
+        <v/>
+      </c>
+      <c r="C22" s="4">
+        <v>2396.9</v>
+      </c>
+    </row>
     <row r="23" ht="13.5"/>
     <row r="24" ht="18" customHeight="1"/>
     <row r="25" ht="13.5"/>
@@ -3120,7 +3125,7 @@
     <row r="36" ht="13.5"/>
     <row r="37" ht="13.5"/>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="BjYWTqg74sr4/1yVCM5bH+/Hz6gRBUKWqHY/NRxPuu1PgM7XuHmnftV6IkbG5GjPHZ1vp8k9EMegOH3Mlfh/vA==" saltValue="bh+qMM/jQsg6RHge0STT1w==" spinCount="100000" sheet="1" formatRows="0" sort="0" autoFilter="0" objects="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="UpXgCjHpXXDp9vr8bIQVBt0L9NbdaOryxd8DNW0Qe6aGnWFnuV0CEXcwbKkjC2ISEmZJfmZCM18ryxhVtnRTkg==" saltValue="vq78BZeUb3NU5Du+BO9WFg==" spinCount="100000" sheet="1" formatRows="0" sort="0" autoFilter="0" objects="1"/>
   <autoFilter xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData" ref="A3:C36" etc:filterBottomFollowUsedRange="0">
     <extLst/>
   </autoFilter>

--- a/file/工程量计算底稿.xlsx
+++ b/file/工程量计算底稿.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:dbsheet="http://web.wps.cn/et/2021/dbsheet">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr codeName="ThisWorkbook"/>
   <workbookProtection workbookAlgorithmName="SHA-512" workbookHashValue="7MXRHbS5nQytCafyzc+8MoP5nJERj7tWVags7l5iijVgWPTMNRXEw3eHOy+Qd4u0cFet7W4rvaDloYZV7uLRSg==" workbookSaltValue="7tKLOdSHVkU+33jMcgm4Jw==" workbookSpinCount="100000" lockStructure="1"/>
   <bookViews>
-    <workbookView windowWidth="27945" windowHeight="12375" activeTab="1"/>
+    <workbookView windowWidth="28800" windowHeight="12375" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="工程量计算底稿" sheetId="1" r:id="rId1"/>
@@ -56,7 +56,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="55">
   <si>
     <t>工程量计算底稿</t>
   </si>
@@ -209,6 +209,12 @@
   </si>
   <si>
     <t>45+89</t>
+  </si>
+  <si>
+    <t>UPVC50</t>
+  </si>
+  <si>
+    <t>23+65</t>
   </si>
   <si>
     <t>工 程 量 汇 总 表</t>
@@ -301,6 +307,13 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="12"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -310,13 +323,6 @@
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="134"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="12"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <u/>
@@ -940,7 +946,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="40">
+  <cellXfs count="47">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1012,6 +1018,12 @@
       <alignment horizontal="left" vertical="center"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1030,57 +1042,79 @@
       <alignment vertical="center" wrapText="1"/>
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center" wrapText="1"/>
       <protection locked="0" hidden="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center" wrapText="1"/>
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0" hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center" wrapText="1"/>
       <protection locked="0" hidden="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center" wrapText="1"/>
+      <protection locked="0" hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0" hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center" wrapText="1"/>
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center" wrapText="1"/>
+      <protection hidden="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center" wrapText="1"/>
       <protection hidden="1"/>
     </xf>
@@ -1633,7 +1667,7 @@
     </dxf>
   </dxfs>
   <tableStyles count="2" defaultTableStyle="表样式 1" defaultPivotStyle="PivotStylePreset2_Accent1">
-    <tableStyle name="表样式 1" pivot="0" count="1" xr9:uid="{6DDA27A9-2846-4FA3-8B9A-E7DBF182EF96}">
+    <tableStyle name="表样式 1" pivot="0" count="1" xr9:uid="{62C2AA67-A16C-472A-A698-26CC61126BE4}">
       <tableStyleElement type="wholeTable" dxfId="12"/>
     </tableStyle>
     <tableStyle name="PivotStylePreset2_Accent1" table="0" count="10" xr9:uid="{267968C8-6FFD-4C36-ACC1-9EA1FD1885CA}">
@@ -1658,7 +1692,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="表1" displayName="表1" ref="A3:J29" totalsRowShown="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="表1" displayName="表1" ref="A3:J30" totalsRowShown="0">
   <tableColumns count="10">
     <tableColumn id="1" name="序号" dataDxfId="0">
       <calculatedColumnFormula>ROW()-3</calculatedColumnFormula>
@@ -1941,12 +1975,12 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:J29"/>
+  <dimension ref="A1:J30"/>
   <sheetViews>
     <sheetView zoomScaleSheetLayoutView="115" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="E12" sqref="E12"/>
+      <selection pane="bottomLeft" activeCell="E31" sqref="E31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="18" customHeight="1"/>
@@ -1988,787 +2022,815 @@
         <v>2</v>
       </c>
       <c r="E2" s="20"/>
-      <c r="F2" s="32"/>
-      <c r="G2" s="32"/>
-      <c r="H2" s="33"/>
-      <c r="I2" s="32"/>
-      <c r="J2" s="32"/>
+      <c r="F2" s="21"/>
+      <c r="G2" s="21"/>
+      <c r="H2" s="22"/>
+      <c r="I2" s="21"/>
+      <c r="J2" s="21"/>
     </row>
     <row r="3" s="10" customFormat="1" ht="18.75" customHeight="1" spans="1:10">
-      <c r="A3" s="21" t="s">
+      <c r="A3" s="23" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="21" t="s">
+      <c r="B3" s="23" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="21" t="s">
+      <c r="C3" s="23" t="s">
         <v>5</v>
       </c>
-      <c r="D3" s="22" t="s">
+      <c r="D3" s="24" t="s">
         <v>6</v>
       </c>
-      <c r="E3" s="22" t="s">
+      <c r="E3" s="24" t="s">
         <v>7</v>
       </c>
-      <c r="F3" s="21" t="s">
+      <c r="F3" s="23" t="s">
         <v>8</v>
       </c>
-      <c r="G3" s="21" t="s">
+      <c r="G3" s="23" t="s">
         <v>9</v>
       </c>
-      <c r="H3" s="21" t="s">
+      <c r="H3" s="23" t="s">
         <v>10</v>
       </c>
-      <c r="I3" s="21" t="s">
+      <c r="I3" s="23" t="s">
         <v>11</v>
       </c>
-      <c r="J3" s="22" t="s">
+      <c r="J3" s="24" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="4" s="11" customFormat="1" customHeight="1" spans="1:10">
-      <c r="A4" s="23">
-        <f t="shared" ref="A4:A29" si="0">ROW()-3</f>
+      <c r="A4" s="25">
+        <f>ROW()-3</f>
         <v>1</v>
       </c>
-      <c r="B4" s="24" t="s">
+      <c r="B4" s="26" t="s">
         <v>13</v>
       </c>
-      <c r="C4" s="25" t="str" cm="1">
+      <c r="C4" s="27" t="str" cm="1">
         <f ca="1" t="array" ref="C4">IF(ISBLANK(B4),INDIRECT("C"&amp;ROW()-1),B4)</f>
         <v>卫生洁具</v>
       </c>
-      <c r="D4" s="26"/>
-      <c r="E4" s="26" t="s">
+      <c r="D4" s="28"/>
+      <c r="E4" s="28" t="s">
         <v>14</v>
       </c>
-      <c r="F4" s="34"/>
-      <c r="G4" s="25" t="e">
-        <f ca="1" t="shared" ref="G4:G29" si="1">IF(ISBLANK(F4),EVALUATE(E4),EVALUATE(E4)*F4)</f>
+      <c r="F4" s="29"/>
+      <c r="G4" s="27" t="e">
+        <f ca="1">IF(ISBLANK(F4),EVALUATE(E4),EVALUATE(E4)*F4)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="H4" s="34"/>
-      <c r="I4" s="38" t="str">
-        <f ca="1" t="shared" ref="I4:I29" si="2">IF(ISBLANK(H4),IFERROR(G4,"")," ")</f>
+      <c r="H4" s="29"/>
+      <c r="I4" s="44" t="str">
+        <f ca="1">IF(ISBLANK(H4),IFERROR(G4,"")," ")</f>
         <v/>
       </c>
-      <c r="J4" s="24"/>
+      <c r="J4" s="26"/>
     </row>
     <row r="5" s="11" customFormat="1" ht="16" customHeight="1" spans="1:10">
-      <c r="A5" s="23">
-        <f t="shared" si="0"/>
+      <c r="A5" s="25">
+        <f>ROW()-3</f>
         <v>2</v>
       </c>
-      <c r="B5" s="27"/>
-      <c r="C5" s="25" t="str" cm="1">
+      <c r="B5" s="30"/>
+      <c r="C5" s="27" t="str" cm="1">
         <f ca="1" t="array" ref="C5">IF(ISBLANK(B5),INDIRECT("C"&amp;ROW()-1),B5)</f>
         <v>卫生洁具</v>
       </c>
-      <c r="D5" s="26" t="s">
+      <c r="D5" s="28" t="s">
         <v>15</v>
       </c>
-      <c r="E5" s="26" t="s">
+      <c r="E5" s="28" t="s">
         <v>16</v>
       </c>
-      <c r="F5" s="34"/>
-      <c r="G5" s="25">
-        <f ca="1" t="shared" si="1"/>
+      <c r="F5" s="29"/>
+      <c r="G5" s="27">
+        <f ca="1">IF(ISBLANK(F5),EVALUATE(E5),EVALUATE(E5)*F5)</f>
         <v>11</v>
       </c>
-      <c r="H5" s="34"/>
-      <c r="I5" s="38">
-        <f ca="1" t="shared" si="2"/>
+      <c r="H5" s="29"/>
+      <c r="I5" s="44">
+        <f ca="1">IF(ISBLANK(H5),IFERROR(G5,"")," ")</f>
         <v>11</v>
       </c>
-      <c r="J5" s="24"/>
+      <c r="J5" s="26"/>
     </row>
     <row r="6" s="11" customFormat="1" ht="16" customHeight="1" spans="1:10">
-      <c r="A6" s="23">
-        <f t="shared" si="0"/>
+      <c r="A6" s="25">
+        <f>ROW()-3</f>
         <v>3</v>
       </c>
-      <c r="B6" s="27"/>
-      <c r="C6" s="25" t="str" cm="1">
+      <c r="B6" s="30"/>
+      <c r="C6" s="27" t="str" cm="1">
         <f ca="1" t="array" ref="C6">IF(ISBLANK(B6),INDIRECT("C"&amp;ROW()-1),B6)</f>
         <v>卫生洁具</v>
       </c>
-      <c r="D6" s="26" t="s">
+      <c r="D6" s="28" t="s">
         <v>17</v>
       </c>
-      <c r="E6" s="26" t="s">
+      <c r="E6" s="28" t="s">
         <v>18</v>
       </c>
-      <c r="F6" s="34"/>
-      <c r="G6" s="25">
-        <f ca="1" t="shared" si="1"/>
+      <c r="F6" s="29"/>
+      <c r="G6" s="27">
+        <f ca="1">IF(ISBLANK(F6),EVALUATE(E6),EVALUATE(E6)*F6)</f>
         <v>15</v>
       </c>
-      <c r="H6" s="34"/>
-      <c r="I6" s="38">
-        <f ca="1" t="shared" si="2"/>
+      <c r="H6" s="29"/>
+      <c r="I6" s="44">
+        <f ca="1">IF(ISBLANK(H6),IFERROR(G6,"")," ")</f>
         <v>15</v>
       </c>
-      <c r="J6" s="24"/>
+      <c r="J6" s="26"/>
     </row>
     <row r="7" s="11" customFormat="1" ht="16" customHeight="1" spans="1:10">
-      <c r="A7" s="23">
-        <f t="shared" si="0"/>
+      <c r="A7" s="25">
+        <f>ROW()-3</f>
         <v>4</v>
       </c>
-      <c r="B7" s="27"/>
-      <c r="C7" s="25" t="str" cm="1">
+      <c r="B7" s="30"/>
+      <c r="C7" s="27" t="str" cm="1">
         <f ca="1" t="array" ref="C7">IF(ISBLANK(B7),INDIRECT("C"&amp;ROW()-1),B7)</f>
         <v>卫生洁具</v>
       </c>
-      <c r="D7" s="26" t="s">
+      <c r="D7" s="28" t="s">
         <v>19</v>
       </c>
-      <c r="E7" s="26">
+      <c r="E7" s="28">
         <v>3</v>
       </c>
-      <c r="F7" s="34"/>
-      <c r="G7" s="25">
-        <f ca="1" t="shared" si="1"/>
+      <c r="F7" s="29"/>
+      <c r="G7" s="27">
+        <f ca="1">IF(ISBLANK(F7),EVALUATE(E7),EVALUATE(E7)*F7)</f>
         <v>3</v>
       </c>
-      <c r="H7" s="34"/>
-      <c r="I7" s="38">
-        <f ca="1" t="shared" si="2"/>
+      <c r="H7" s="29"/>
+      <c r="I7" s="44">
+        <f ca="1">IF(ISBLANK(H7),IFERROR(G7,"")," ")</f>
         <v>3</v>
       </c>
-      <c r="J7" s="24"/>
+      <c r="J7" s="26"/>
     </row>
     <row r="8" s="11" customFormat="1" ht="16" customHeight="1" spans="1:10">
-      <c r="A8" s="23">
-        <f t="shared" si="0"/>
+      <c r="A8" s="25">
+        <f>ROW()-3</f>
         <v>5</v>
       </c>
-      <c r="B8" s="24"/>
-      <c r="C8" s="25" t="str" cm="1">
+      <c r="B8" s="26"/>
+      <c r="C8" s="27" t="str" cm="1">
         <f ca="1" t="array" ref="C8">IF(ISBLANK(B8),INDIRECT("C"&amp;ROW()-1),B8)</f>
         <v>卫生洁具</v>
       </c>
-      <c r="D8" s="26" t="s">
+      <c r="D8" s="28" t="s">
         <v>20</v>
       </c>
-      <c r="E8" s="26" t="s">
+      <c r="E8" s="28" t="s">
         <v>21</v>
       </c>
-      <c r="F8" s="34"/>
-      <c r="G8" s="25">
-        <f ca="1" t="shared" si="1"/>
+      <c r="F8" s="29"/>
+      <c r="G8" s="27">
+        <f ca="1">IF(ISBLANK(F8),EVALUATE(E8),EVALUATE(E8)*F8)</f>
         <v>15</v>
       </c>
-      <c r="H8" s="34"/>
-      <c r="I8" s="38">
-        <f ca="1" t="shared" si="2"/>
+      <c r="H8" s="29"/>
+      <c r="I8" s="44">
+        <f ca="1">IF(ISBLANK(H8),IFERROR(G8,"")," ")</f>
         <v>15</v>
       </c>
-      <c r="J8" s="24"/>
+      <c r="J8" s="26"/>
     </row>
     <row r="9" s="11" customFormat="1" ht="16" customHeight="1" spans="1:10">
-      <c r="A9" s="23">
-        <f t="shared" si="0"/>
+      <c r="A9" s="25">
+        <f>ROW()-3</f>
         <v>6</v>
       </c>
-      <c r="B9" s="24"/>
-      <c r="C9" s="25" t="str">
-        <f ca="1" t="shared" ref="C9:C29" si="3">IF(ISBLANK(B9),INDIRECT("C"&amp;ROW()-1),B9)</f>
+      <c r="B9" s="26"/>
+      <c r="C9" s="27" t="str">
+        <f ca="1">IF(ISBLANK(B9),INDIRECT("C"&amp;ROW()-1),B9)</f>
         <v>卫生洁具</v>
       </c>
-      <c r="D9" s="26" t="s">
+      <c r="D9" s="28" t="s">
         <v>22</v>
       </c>
-      <c r="E9" s="26" t="s">
+      <c r="E9" s="28" t="s">
         <v>23</v>
       </c>
-      <c r="F9" s="34"/>
-      <c r="G9" s="25">
-        <f ca="1" t="shared" si="1"/>
+      <c r="F9" s="29"/>
+      <c r="G9" s="27">
+        <f ca="1">IF(ISBLANK(F9),EVALUATE(E9),EVALUATE(E9)*F9)</f>
         <v>17</v>
       </c>
-      <c r="H9" s="34"/>
-      <c r="I9" s="38">
-        <f ca="1" t="shared" si="2"/>
+      <c r="H9" s="29"/>
+      <c r="I9" s="44">
+        <f ca="1">IF(ISBLANK(H9),IFERROR(G9,"")," ")</f>
         <v>17</v>
       </c>
-      <c r="J9" s="24"/>
+      <c r="J9" s="26"/>
     </row>
     <row r="10" s="11" customFormat="1" ht="16" customHeight="1" spans="1:10">
-      <c r="A10" s="23">
-        <f t="shared" si="0"/>
+      <c r="A10" s="25">
+        <f>ROW()-3</f>
         <v>7</v>
       </c>
-      <c r="B10" s="24"/>
-      <c r="C10" s="25" t="str">
-        <f ca="1" t="shared" si="3"/>
+      <c r="B10" s="26"/>
+      <c r="C10" s="27" t="str">
+        <f ca="1">IF(ISBLANK(B10),INDIRECT("C"&amp;ROW()-1),B10)</f>
         <v>卫生洁具</v>
       </c>
-      <c r="D10" s="26"/>
-      <c r="E10" s="26" t="s">
+      <c r="D10" s="28"/>
+      <c r="E10" s="28" t="s">
         <v>24</v>
       </c>
-      <c r="F10" s="34"/>
-      <c r="G10" s="25" t="e">
-        <f ca="1" t="shared" si="1"/>
+      <c r="F10" s="29"/>
+      <c r="G10" s="27" t="e">
+        <f ca="1">IF(ISBLANK(F10),EVALUATE(E10),EVALUATE(E10)*F10)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="H10" s="34"/>
-      <c r="I10" s="38" t="str">
-        <f ca="1" t="shared" si="2"/>
+      <c r="H10" s="29"/>
+      <c r="I10" s="44" t="str">
+        <f ca="1">IF(ISBLANK(H10),IFERROR(G10,"")," ")</f>
         <v/>
       </c>
-      <c r="J10" s="24"/>
+      <c r="J10" s="26"/>
     </row>
     <row r="11" s="11" customFormat="1" ht="16" customHeight="1" spans="1:10">
-      <c r="A11" s="23">
-        <f t="shared" si="0"/>
+      <c r="A11" s="25">
+        <f>ROW()-3</f>
         <v>8</v>
       </c>
-      <c r="B11" s="24"/>
-      <c r="C11" s="25" t="str">
-        <f ca="1" t="shared" si="3"/>
+      <c r="B11" s="26"/>
+      <c r="C11" s="27" t="str">
+        <f ca="1">IF(ISBLANK(B11),INDIRECT("C"&amp;ROW()-1),B11)</f>
         <v>卫生洁具</v>
       </c>
-      <c r="D11" s="26" t="s">
+      <c r="D11" s="28" t="s">
         <v>15</v>
       </c>
-      <c r="E11" s="26" t="s">
+      <c r="E11" s="28" t="s">
         <v>25</v>
       </c>
-      <c r="F11" s="34">
+      <c r="F11" s="29">
         <v>9</v>
       </c>
-      <c r="G11" s="25">
-        <f ca="1" t="shared" si="1"/>
+      <c r="G11" s="27">
+        <f ca="1">IF(ISBLANK(F11),EVALUATE(E11),EVALUATE(E11)*F11)</f>
         <v>252</v>
       </c>
-      <c r="H11" s="34"/>
-      <c r="I11" s="38">
-        <f ca="1" t="shared" si="2"/>
+      <c r="H11" s="29"/>
+      <c r="I11" s="44">
+        <f ca="1">IF(ISBLANK(H11),IFERROR(G11,"")," ")</f>
         <v>252</v>
       </c>
-      <c r="J11" s="24"/>
+      <c r="J11" s="26"/>
     </row>
     <row r="12" s="11" customFormat="1" ht="16" customHeight="1" spans="1:10">
-      <c r="A12" s="23">
-        <f t="shared" si="0"/>
+      <c r="A12" s="25">
+        <f>ROW()-3</f>
         <v>9</v>
       </c>
-      <c r="B12" s="24"/>
-      <c r="C12" s="25" t="str">
-        <f ca="1" t="shared" si="3"/>
+      <c r="B12" s="26"/>
+      <c r="C12" s="27" t="str">
+        <f ca="1">IF(ISBLANK(B12),INDIRECT("C"&amp;ROW()-1),B12)</f>
         <v>卫生洁具</v>
       </c>
-      <c r="D12" s="26" t="s">
+      <c r="D12" s="28" t="s">
         <v>26</v>
       </c>
-      <c r="E12" s="26" t="s">
+      <c r="E12" s="28" t="s">
         <v>27</v>
       </c>
-      <c r="F12" s="34">
+      <c r="F12" s="29">
         <v>9</v>
       </c>
-      <c r="G12" s="25">
-        <f ca="1" t="shared" si="1"/>
+      <c r="G12" s="27">
+        <f ca="1">IF(ISBLANK(F12),EVALUATE(E12),EVALUATE(E12)*F12)</f>
         <v>153</v>
       </c>
-      <c r="H12" s="34"/>
-      <c r="I12" s="38">
-        <f ca="1" t="shared" si="2"/>
+      <c r="H12" s="29"/>
+      <c r="I12" s="44">
+        <f ca="1">IF(ISBLANK(H12),IFERROR(G12,"")," ")</f>
         <v>153</v>
       </c>
-      <c r="J12" s="24"/>
+      <c r="J12" s="26"/>
     </row>
     <row r="13" customHeight="1" spans="1:10">
-      <c r="A13" s="28">
-        <f t="shared" si="0"/>
+      <c r="A13" s="31">
+        <f>ROW()-3</f>
         <v>10</v>
       </c>
-      <c r="B13" s="24"/>
-      <c r="C13" s="29" t="str">
-        <f ca="1" t="shared" si="3"/>
+      <c r="B13" s="26"/>
+      <c r="C13" s="32" t="str">
+        <f ca="1">IF(ISBLANK(B13),INDIRECT("C"&amp;ROW()-1),B13)</f>
         <v>卫生洁具</v>
       </c>
-      <c r="D13" s="26" t="s">
+      <c r="D13" s="28" t="s">
         <v>17</v>
       </c>
-      <c r="E13" s="26" t="s">
+      <c r="E13" s="28" t="s">
         <v>28</v>
       </c>
-      <c r="F13" s="34">
+      <c r="F13" s="29">
         <v>9</v>
       </c>
-      <c r="G13" s="29">
-        <f ca="1" t="shared" si="1"/>
+      <c r="G13" s="32">
+        <f ca="1">IF(ISBLANK(F13),EVALUATE(E13),EVALUATE(E13)*F13)</f>
         <v>216</v>
       </c>
-      <c r="H13" s="35"/>
-      <c r="I13" s="38">
-        <f ca="1" t="shared" si="2"/>
+      <c r="H13" s="33"/>
+      <c r="I13" s="44">
+        <f ca="1">IF(ISBLANK(H13),IFERROR(G13,"")," ")</f>
         <v>216</v>
       </c>
-      <c r="J13" s="30"/>
+      <c r="J13" s="35"/>
     </row>
     <row r="14" customHeight="1" spans="1:10">
-      <c r="A14" s="28">
-        <f t="shared" si="0"/>
+      <c r="A14" s="31">
+        <f>ROW()-3</f>
         <v>11</v>
       </c>
-      <c r="B14" s="24"/>
-      <c r="C14" s="29" t="str">
-        <f ca="1" t="shared" si="3"/>
+      <c r="B14" s="26"/>
+      <c r="C14" s="32" t="str">
+        <f ca="1">IF(ISBLANK(B14),INDIRECT("C"&amp;ROW()-1),B14)</f>
         <v>卫生洁具</v>
       </c>
-      <c r="D14" s="26" t="s">
+      <c r="D14" s="28" t="s">
         <v>19</v>
       </c>
-      <c r="E14" s="26" t="s">
+      <c r="E14" s="28" t="s">
         <v>29</v>
       </c>
-      <c r="F14" s="34">
+      <c r="F14" s="29">
         <v>9</v>
       </c>
-      <c r="G14" s="29">
-        <f ca="1" t="shared" si="1"/>
+      <c r="G14" s="32">
+        <f ca="1">IF(ISBLANK(F14),EVALUATE(E14),EVALUATE(E14)*F14)</f>
         <v>180</v>
       </c>
-      <c r="H14" s="36"/>
-      <c r="I14" s="38">
-        <f ca="1" t="shared" si="2"/>
+      <c r="H14" s="34"/>
+      <c r="I14" s="44">
+        <f ca="1">IF(ISBLANK(H14),IFERROR(G14,"")," ")</f>
         <v>180</v>
       </c>
-      <c r="J14" s="30"/>
+      <c r="J14" s="35"/>
     </row>
     <row r="15" customHeight="1" spans="1:10">
-      <c r="A15" s="28">
-        <f t="shared" si="0"/>
+      <c r="A15" s="31">
+        <f>ROW()-3</f>
         <v>12</v>
       </c>
-      <c r="B15" s="24"/>
-      <c r="C15" s="29" t="str">
-        <f ca="1" t="shared" si="3"/>
+      <c r="B15" s="26"/>
+      <c r="C15" s="32" t="str">
+        <f ca="1">IF(ISBLANK(B15),INDIRECT("C"&amp;ROW()-1),B15)</f>
         <v>卫生洁具</v>
       </c>
-      <c r="D15" s="26" t="s">
+      <c r="D15" s="28" t="s">
         <v>20</v>
       </c>
-      <c r="E15" s="26" t="s">
+      <c r="E15" s="28" t="s">
         <v>30</v>
       </c>
-      <c r="F15" s="34">
+      <c r="F15" s="29">
         <v>9</v>
       </c>
-      <c r="G15" s="29">
-        <f ca="1" t="shared" si="1"/>
+      <c r="G15" s="32">
+        <f ca="1">IF(ISBLANK(F15),EVALUATE(E15),EVALUATE(E15)*F15)</f>
         <v>261</v>
       </c>
-      <c r="H15" s="36"/>
-      <c r="I15" s="38">
-        <f ca="1" t="shared" si="2"/>
+      <c r="H15" s="34"/>
+      <c r="I15" s="44">
+        <f ca="1">IF(ISBLANK(H15),IFERROR(G15,"")," ")</f>
         <v>261</v>
       </c>
-      <c r="J15" s="30"/>
+      <c r="J15" s="35"/>
     </row>
     <row r="16" customHeight="1" spans="1:10">
-      <c r="A16" s="28">
-        <f t="shared" si="0"/>
+      <c r="A16" s="31">
+        <f>ROW()-3</f>
         <v>13</v>
       </c>
-      <c r="B16" s="24"/>
-      <c r="C16" s="29" t="str">
-        <f ca="1" t="shared" si="3"/>
+      <c r="B16" s="26"/>
+      <c r="C16" s="32" t="str">
+        <f ca="1">IF(ISBLANK(B16),INDIRECT("C"&amp;ROW()-1),B16)</f>
         <v>卫生洁具</v>
       </c>
-      <c r="D16" s="26" t="s">
+      <c r="D16" s="28" t="s">
         <v>22</v>
       </c>
-      <c r="E16" s="26" t="s">
+      <c r="E16" s="28" t="s">
         <v>31</v>
       </c>
-      <c r="F16" s="34">
+      <c r="F16" s="29">
         <v>9</v>
       </c>
-      <c r="G16" s="29">
-        <f ca="1" t="shared" si="1"/>
+      <c r="G16" s="32">
+        <f ca="1">IF(ISBLANK(F16),EVALUATE(E16),EVALUATE(E16)*F16)</f>
         <v>207</v>
       </c>
-      <c r="H16" s="36"/>
-      <c r="I16" s="39">
-        <f ca="1" t="shared" si="2"/>
+      <c r="H16" s="34"/>
+      <c r="I16" s="45">
+        <f ca="1">IF(ISBLANK(H16),IFERROR(G16,"")," ")</f>
         <v>207</v>
       </c>
-      <c r="J16" s="30"/>
+      <c r="J16" s="35"/>
     </row>
     <row r="17" customHeight="1" spans="1:10">
-      <c r="A17" s="28">
-        <f t="shared" si="0"/>
+      <c r="A17" s="31">
+        <f>ROW()-3</f>
         <v>14</v>
       </c>
-      <c r="B17" s="24" t="s">
+      <c r="B17" s="26" t="s">
         <v>32</v>
       </c>
-      <c r="C17" s="29" t="str">
-        <f ca="1" t="shared" si="3"/>
+      <c r="C17" s="32" t="str">
+        <f ca="1">IF(ISBLANK(B17),INDIRECT("C"&amp;ROW()-1),B17)</f>
         <v>给水管道</v>
       </c>
-      <c r="D17" s="26"/>
-      <c r="E17" s="26" t="s">
+      <c r="D17" s="28"/>
+      <c r="E17" s="28" t="s">
         <v>14</v>
       </c>
-      <c r="F17" s="34"/>
-      <c r="G17" s="29" t="e">
-        <f ca="1" t="shared" si="1"/>
+      <c r="F17" s="29"/>
+      <c r="G17" s="32" t="e">
+        <f ca="1">IF(ISBLANK(F17),EVALUATE(E17),EVALUATE(E17)*F17)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="H17" s="36"/>
-      <c r="I17" s="39" t="str">
-        <f ca="1" t="shared" si="2"/>
+      <c r="H17" s="34"/>
+      <c r="I17" s="45" t="str">
+        <f ca="1">IF(ISBLANK(H17),IFERROR(G17,"")," ")</f>
         <v/>
       </c>
-      <c r="J17" s="30"/>
+      <c r="J17" s="35"/>
     </row>
     <row r="18" customHeight="1" spans="1:10">
-      <c r="A18" s="28">
-        <f t="shared" si="0"/>
+      <c r="A18" s="31">
+        <f>ROW()-3</f>
         <v>15</v>
       </c>
-      <c r="B18" s="30"/>
-      <c r="C18" s="29" t="str">
-        <f ca="1" t="shared" si="3"/>
+      <c r="B18" s="35"/>
+      <c r="C18" s="32" t="str">
+        <f ca="1">IF(ISBLANK(B18),INDIRECT("C"&amp;ROW()-1),B18)</f>
         <v>给水管道</v>
       </c>
-      <c r="D18" s="26" t="s">
+      <c r="D18" s="28" t="s">
         <v>33</v>
       </c>
-      <c r="E18" s="26" t="s">
+      <c r="E18" s="28" t="s">
         <v>34</v>
       </c>
-      <c r="F18" s="34"/>
-      <c r="G18" s="29">
-        <f ca="1" t="shared" si="1"/>
+      <c r="F18" s="29"/>
+      <c r="G18" s="32">
+        <f ca="1">IF(ISBLANK(F18),EVALUATE(E18),EVALUATE(E18)*F18)</f>
         <v>26.7</v>
       </c>
-      <c r="H18" s="36"/>
-      <c r="I18" s="39">
-        <f ca="1" t="shared" si="2"/>
+      <c r="H18" s="34"/>
+      <c r="I18" s="45">
+        <f ca="1">IF(ISBLANK(H18),IFERROR(G18,"")," ")</f>
         <v>26.7</v>
       </c>
-      <c r="J18" s="30"/>
+      <c r="J18" s="35"/>
     </row>
     <row r="19" customHeight="1" spans="1:10">
-      <c r="A19" s="28">
-        <f t="shared" si="0"/>
+      <c r="A19" s="31">
+        <f>ROW()-3</f>
         <v>16</v>
       </c>
-      <c r="B19" s="30"/>
-      <c r="C19" s="29" t="str">
-        <f ca="1" t="shared" si="3"/>
+      <c r="B19" s="35"/>
+      <c r="C19" s="32" t="str">
+        <f ca="1">IF(ISBLANK(B19),INDIRECT("C"&amp;ROW()-1),B19)</f>
         <v>给水管道</v>
       </c>
-      <c r="D19" s="26" t="s">
+      <c r="D19" s="28" t="s">
         <v>35</v>
       </c>
-      <c r="E19" s="26" t="s">
+      <c r="E19" s="28" t="s">
         <v>36</v>
       </c>
-      <c r="F19" s="34"/>
-      <c r="G19" s="29">
-        <f ca="1" t="shared" si="1"/>
+      <c r="F19" s="29"/>
+      <c r="G19" s="32">
+        <f ca="1">IF(ISBLANK(F19),EVALUATE(E19),EVALUATE(E19)*F19)</f>
         <v>21.9</v>
       </c>
-      <c r="H19" s="36"/>
-      <c r="I19" s="39">
-        <f ca="1" t="shared" si="2"/>
+      <c r="H19" s="34"/>
+      <c r="I19" s="45">
+        <f ca="1">IF(ISBLANK(H19),IFERROR(G19,"")," ")</f>
         <v>21.9</v>
       </c>
-      <c r="J19" s="30"/>
+      <c r="J19" s="35"/>
     </row>
     <row r="20" customHeight="1" spans="1:10">
-      <c r="A20" s="28">
-        <f t="shared" si="0"/>
+      <c r="A20" s="31">
+        <f>ROW()-3</f>
         <v>17</v>
       </c>
-      <c r="B20" s="30"/>
-      <c r="C20" s="29" t="str">
-        <f ca="1" t="shared" si="3"/>
+      <c r="B20" s="35"/>
+      <c r="C20" s="32" t="str">
+        <f ca="1">IF(ISBLANK(B20),INDIRECT("C"&amp;ROW()-1),B20)</f>
         <v>给水管道</v>
       </c>
-      <c r="D20" s="26" t="s">
+      <c r="D20" s="28" t="s">
         <v>37</v>
       </c>
-      <c r="E20" s="26" t="s">
+      <c r="E20" s="28" t="s">
         <v>38</v>
       </c>
-      <c r="F20" s="34"/>
-      <c r="G20" s="29">
-        <f ca="1" t="shared" si="1"/>
+      <c r="F20" s="29"/>
+      <c r="G20" s="32">
+        <f ca="1">IF(ISBLANK(F20),EVALUATE(E20),EVALUATE(E20)*F20)</f>
         <v>57</v>
       </c>
-      <c r="H20" s="36"/>
-      <c r="I20" s="39">
-        <f ca="1" t="shared" si="2"/>
+      <c r="H20" s="34"/>
+      <c r="I20" s="45">
+        <f ca="1">IF(ISBLANK(H20),IFERROR(G20,"")," ")</f>
         <v>57</v>
       </c>
-      <c r="J20" s="30"/>
+      <c r="J20" s="35"/>
     </row>
     <row r="21" customHeight="1" spans="1:10">
-      <c r="A21" s="28">
-        <f t="shared" si="0"/>
+      <c r="A21" s="31">
+        <f>ROW()-3</f>
         <v>18</v>
       </c>
-      <c r="B21" s="30"/>
-      <c r="C21" s="29" t="str">
-        <f ca="1" t="shared" si="3"/>
+      <c r="B21" s="35"/>
+      <c r="C21" s="32" t="str">
+        <f ca="1">IF(ISBLANK(B21),INDIRECT("C"&amp;ROW()-1),B21)</f>
         <v>给水管道</v>
       </c>
-      <c r="D21" s="26"/>
-      <c r="E21" s="26" t="s">
+      <c r="D21" s="28"/>
+      <c r="E21" s="28" t="s">
         <v>24</v>
       </c>
-      <c r="F21" s="34"/>
-      <c r="G21" s="29" t="e">
-        <f ca="1" t="shared" si="1"/>
+      <c r="F21" s="29"/>
+      <c r="G21" s="32" t="e">
+        <f ca="1">IF(ISBLANK(F21),EVALUATE(E21),EVALUATE(E21)*F21)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="H21" s="36"/>
-      <c r="I21" s="39" t="str">
-        <f ca="1" t="shared" si="2"/>
+      <c r="H21" s="34"/>
+      <c r="I21" s="45" t="str">
+        <f ca="1">IF(ISBLANK(H21),IFERROR(G21,"")," ")</f>
         <v/>
       </c>
-      <c r="J21" s="30"/>
+      <c r="J21" s="35"/>
     </row>
     <row r="22" customHeight="1" spans="1:10">
-      <c r="A22" s="28">
-        <f t="shared" si="0"/>
+      <c r="A22" s="31">
+        <f>ROW()-3</f>
         <v>19</v>
       </c>
-      <c r="B22" s="30"/>
-      <c r="C22" s="29" t="str">
-        <f ca="1" t="shared" si="3"/>
+      <c r="B22" s="35"/>
+      <c r="C22" s="32" t="str">
+        <f ca="1">IF(ISBLANK(B22),INDIRECT("C"&amp;ROW()-1),B22)</f>
         <v>给水管道</v>
       </c>
-      <c r="D22" s="26" t="s">
+      <c r="D22" s="28" t="s">
         <v>33</v>
       </c>
-      <c r="E22" s="26" t="s">
+      <c r="E22" s="28" t="s">
         <v>39</v>
       </c>
-      <c r="F22" s="34">
+      <c r="F22" s="29">
         <v>9</v>
       </c>
-      <c r="G22" s="29">
-        <f ca="1" t="shared" si="1"/>
+      <c r="G22" s="32">
+        <f ca="1">IF(ISBLANK(F22),EVALUATE(E22),EVALUATE(E22)*F22)</f>
         <v>183.6</v>
       </c>
-      <c r="H22" s="36"/>
-      <c r="I22" s="39">
-        <f ca="1" t="shared" si="2"/>
+      <c r="H22" s="34"/>
+      <c r="I22" s="45">
+        <f ca="1">IF(ISBLANK(H22),IFERROR(G22,"")," ")</f>
         <v>183.6</v>
       </c>
-      <c r="J22" s="30"/>
+      <c r="J22" s="35"/>
     </row>
     <row r="23" customHeight="1" spans="1:10">
-      <c r="A23" s="28">
-        <f t="shared" si="0"/>
+      <c r="A23" s="31">
+        <f>ROW()-3</f>
         <v>20</v>
       </c>
-      <c r="B23" s="30"/>
-      <c r="C23" s="29" t="str">
-        <f ca="1" t="shared" si="3"/>
+      <c r="B23" s="35"/>
+      <c r="C23" s="32" t="str">
+        <f ca="1">IF(ISBLANK(B23),INDIRECT("C"&amp;ROW()-1),B23)</f>
         <v>给水管道</v>
       </c>
-      <c r="D23" s="26" t="s">
+      <c r="D23" s="28" t="s">
         <v>35</v>
       </c>
-      <c r="E23" s="26" t="s">
+      <c r="E23" s="28" t="s">
         <v>40</v>
       </c>
-      <c r="F23" s="34">
+      <c r="F23" s="29">
         <v>9</v>
       </c>
-      <c r="G23" s="29">
-        <f ca="1" t="shared" si="1"/>
+      <c r="G23" s="32">
+        <f ca="1">IF(ISBLANK(F23),EVALUATE(E23),EVALUATE(E23)*F23)</f>
         <v>203.4</v>
       </c>
-      <c r="H23" s="36"/>
-      <c r="I23" s="39">
-        <f ca="1" t="shared" si="2"/>
+      <c r="H23" s="34"/>
+      <c r="I23" s="45">
+        <f ca="1">IF(ISBLANK(H23),IFERROR(G23,"")," ")</f>
         <v>203.4</v>
       </c>
-      <c r="J23" s="30"/>
+      <c r="J23" s="35"/>
     </row>
     <row r="24" customHeight="1" spans="1:10">
-      <c r="A24" s="28">
-        <f t="shared" si="0"/>
+      <c r="A24" s="31">
+        <f>ROW()-3</f>
         <v>21</v>
       </c>
-      <c r="B24" s="30"/>
-      <c r="C24" s="31" t="str">
-        <f ca="1" t="shared" si="3"/>
+      <c r="B24" s="35"/>
+      <c r="C24" s="36" t="str">
+        <f ca="1">IF(ISBLANK(B24),INDIRECT("C"&amp;ROW()-1),B24)</f>
         <v>给水管道</v>
       </c>
-      <c r="D24" s="30" t="s">
+      <c r="D24" s="35" t="s">
         <v>41</v>
       </c>
       <c r="E24" s="37" t="s">
         <v>42</v>
       </c>
-      <c r="F24" s="35">
+      <c r="F24" s="33">
         <v>9</v>
       </c>
-      <c r="G24" s="31">
-        <f ca="1" t="shared" si="1"/>
+      <c r="G24" s="36">
+        <f ca="1">IF(ISBLANK(F24),EVALUATE(E24),EVALUATE(E24)*F24)</f>
         <v>216</v>
       </c>
-      <c r="H24" s="36"/>
-      <c r="I24" s="39">
-        <f ca="1" t="shared" si="2"/>
+      <c r="H24" s="34"/>
+      <c r="I24" s="45">
+        <f ca="1">IF(ISBLANK(H24),IFERROR(G24,"")," ")</f>
         <v>216</v>
       </c>
-      <c r="J24" s="30"/>
+      <c r="J24" s="35"/>
     </row>
     <row r="25" customHeight="1" spans="1:10">
-      <c r="A25" s="28">
-        <f t="shared" si="0"/>
+      <c r="A25" s="31">
+        <f>ROW()-3</f>
         <v>22</v>
       </c>
-      <c r="B25" s="30"/>
-      <c r="C25" s="31" t="str">
-        <f ca="1" t="shared" si="3"/>
+      <c r="B25" s="35"/>
+      <c r="C25" s="36" t="str">
+        <f ca="1">IF(ISBLANK(B25),INDIRECT("C"&amp;ROW()-1),B25)</f>
         <v>给水管道</v>
       </c>
-      <c r="D25" s="30" t="s">
+      <c r="D25" s="35" t="s">
         <v>43</v>
       </c>
       <c r="E25" s="37" t="s">
         <v>44</v>
       </c>
-      <c r="F25" s="35">
+      <c r="F25" s="33">
         <v>9</v>
       </c>
-      <c r="G25" s="31">
-        <f ca="1" t="shared" si="1"/>
+      <c r="G25" s="36">
+        <f ca="1">IF(ISBLANK(F25),EVALUATE(E25),EVALUATE(E25)*F25)</f>
         <v>61.2</v>
       </c>
-      <c r="H25" s="36"/>
-      <c r="I25" s="39">
-        <f ca="1" t="shared" si="2"/>
+      <c r="H25" s="34"/>
+      <c r="I25" s="45">
+        <f ca="1">IF(ISBLANK(H25),IFERROR(G25,"")," ")</f>
         <v>61.2</v>
       </c>
-      <c r="J25" s="30"/>
+      <c r="J25" s="35"/>
     </row>
     <row r="26" customHeight="1" spans="1:10">
-      <c r="A26" s="28">
-        <f t="shared" si="0"/>
+      <c r="A26" s="31">
+        <f>ROW()-3</f>
         <v>23</v>
       </c>
-      <c r="B26" s="30"/>
-      <c r="C26" s="31" t="str">
-        <f ca="1" t="shared" si="3"/>
+      <c r="B26" s="35"/>
+      <c r="C26" s="36" t="str">
+        <f ca="1">IF(ISBLANK(B26),INDIRECT("C"&amp;ROW()-1),B26)</f>
         <v>给水管道</v>
       </c>
-      <c r="D26" s="30" t="s">
+      <c r="D26" s="35" t="s">
         <v>45</v>
       </c>
       <c r="E26" s="37" t="s">
         <v>46</v>
       </c>
-      <c r="F26" s="35">
+      <c r="F26" s="33">
         <v>9</v>
       </c>
-      <c r="G26" s="31">
-        <f ca="1" t="shared" si="1"/>
+      <c r="G26" s="36">
+        <f ca="1">IF(ISBLANK(F26),EVALUATE(E26),EVALUATE(E26)*F26)</f>
         <v>107.1</v>
       </c>
-      <c r="H26" s="36"/>
-      <c r="I26" s="39">
-        <f ca="1" t="shared" si="2"/>
+      <c r="H26" s="34"/>
+      <c r="I26" s="45">
+        <f ca="1">IF(ISBLANK(H26),IFERROR(G26,"")," ")</f>
         <v>107.1</v>
       </c>
-      <c r="J26" s="30"/>
+      <c r="J26" s="35"/>
     </row>
     <row r="27" customHeight="1" spans="1:10">
-      <c r="A27" s="28">
-        <f t="shared" si="0"/>
+      <c r="A27" s="31">
+        <f>ROW()-3</f>
         <v>24</v>
       </c>
-      <c r="B27" s="30" t="s">
+      <c r="B27" s="35" t="s">
         <v>47</v>
       </c>
-      <c r="C27" s="31" t="str">
-        <f ca="1" t="shared" si="3"/>
+      <c r="C27" s="36" t="str">
+        <f ca="1">IF(ISBLANK(B27),INDIRECT("C"&amp;ROW()-1),B27)</f>
         <v>排水管道</v>
       </c>
-      <c r="D27" s="30"/>
+      <c r="D27" s="35"/>
       <c r="E27" s="37"/>
-      <c r="F27" s="35"/>
-      <c r="G27" s="31" t="e">
-        <f ca="1" t="shared" si="1"/>
+      <c r="F27" s="33"/>
+      <c r="G27" s="36" t="e">
+        <f ca="1">IF(ISBLANK(F27),EVALUATE(E27),EVALUATE(E27)*F27)</f>
         <v>#VALUE!</v>
       </c>
-      <c r="H27" s="36"/>
-      <c r="I27" s="39" t="str">
-        <f ca="1" t="shared" si="2"/>
+      <c r="H27" s="34"/>
+      <c r="I27" s="45" t="str">
+        <f ca="1">IF(ISBLANK(H27),IFERROR(G27,"")," ")</f>
         <v/>
       </c>
-      <c r="J27" s="30"/>
+      <c r="J27" s="35"/>
     </row>
     <row r="28" customHeight="1" spans="1:10">
-      <c r="A28" s="28">
-        <f t="shared" si="0"/>
+      <c r="A28" s="31">
+        <f>ROW()-3</f>
         <v>25</v>
       </c>
-      <c r="B28" s="30"/>
-      <c r="C28" s="31" t="str">
-        <f ca="1" t="shared" si="3"/>
+      <c r="B28" s="35"/>
+      <c r="C28" s="36" t="str">
+        <f ca="1">IF(ISBLANK(B28),INDIRECT("C"&amp;ROW()-1),B28)</f>
         <v>排水管道</v>
       </c>
-      <c r="D28" s="30" t="s">
+      <c r="D28" s="35" t="s">
         <v>48</v>
       </c>
       <c r="E28" s="37">
         <v>56</v>
       </c>
-      <c r="F28" s="35"/>
-      <c r="G28" s="31">
-        <f ca="1" t="shared" si="1"/>
+      <c r="F28" s="33"/>
+      <c r="G28" s="36">
+        <f ca="1">IF(ISBLANK(F28),EVALUATE(E28),EVALUATE(E28)*F28)</f>
         <v>56</v>
       </c>
-      <c r="H28" s="36"/>
-      <c r="I28" s="39">
-        <f ca="1" t="shared" si="2"/>
+      <c r="H28" s="34"/>
+      <c r="I28" s="45">
+        <f ca="1">IF(ISBLANK(H28),IFERROR(G28,"")," ")</f>
         <v>56</v>
       </c>
-      <c r="J28" s="30"/>
+      <c r="J28" s="35"/>
     </row>
     <row r="29" customHeight="1" spans="1:10">
-      <c r="A29" s="28">
-        <f t="shared" si="0"/>
+      <c r="A29" s="31">
+        <f>ROW()-3</f>
         <v>26</v>
       </c>
-      <c r="B29" s="30"/>
-      <c r="C29" s="31" t="str">
-        <f ca="1" t="shared" si="3"/>
+      <c r="B29" s="35"/>
+      <c r="C29" s="36" t="str">
+        <f ca="1">IF(ISBLANK(B29),INDIRECT("C"&amp;ROW()-1),B29)</f>
         <v>排水管道</v>
       </c>
-      <c r="D29" s="30" t="s">
+      <c r="D29" s="35" t="s">
         <v>49</v>
       </c>
       <c r="E29" s="37" t="s">
         <v>50</v>
       </c>
-      <c r="F29" s="35"/>
-      <c r="G29" s="31">
-        <f ca="1" t="shared" si="1"/>
+      <c r="F29" s="33"/>
+      <c r="G29" s="36">
+        <f ca="1">IF(ISBLANK(F29),EVALUATE(E29),EVALUATE(E29)*F29)</f>
         <v>134</v>
       </c>
-      <c r="H29" s="36"/>
-      <c r="I29" s="39">
-        <f ca="1" t="shared" si="2"/>
+      <c r="H29" s="34"/>
+      <c r="I29" s="45">
+        <f ca="1">IF(ISBLANK(H29),IFERROR(G29,"")," ")</f>
         <v>134</v>
       </c>
-      <c r="J29" s="30"/>
+      <c r="J29" s="35"/>
+    </row>
+    <row r="30" customHeight="1" spans="1:10">
+      <c r="A30" s="38">
+        <f>ROW()-3</f>
+        <v>27</v>
+      </c>
+      <c r="B30" s="39"/>
+      <c r="C30" s="40" t="str">
+        <f ca="1">IF(ISBLANK(B30),INDIRECT("C"&amp;ROW()-1),B30)</f>
+        <v>排水管道</v>
+      </c>
+      <c r="D30" s="39" t="s">
+        <v>51</v>
+      </c>
+      <c r="E30" s="41" t="s">
+        <v>52</v>
+      </c>
+      <c r="F30" s="42"/>
+      <c r="G30" s="40">
+        <f ca="1">IF(ISBLANK(F30),EVALUATE(E30),EVALUATE(E30)*F30)</f>
+        <v>88</v>
+      </c>
+      <c r="H30" s="43"/>
+      <c r="I30" s="46">
+        <f ca="1">IF(ISBLANK(H30),IFERROR(G30,"")," ")</f>
+        <v>88</v>
+      </c>
+      <c r="J30" s="39"/>
     </row>
   </sheetData>
   <sheetProtection algorithmName="SHA-512" hashValue="b8RrwQ8RFP+L2nlFE3z4p/SRht1f54Cu7iqPmMbF7DQyoZAWJFA721qfrZ45RgZGTDyRfcke33QAnJQYkeKauw==" saltValue="Ct/0J66qJDYTLoqupGChPA==" spinCount="100000" sheet="1" formatCells="0" formatRows="0" insertRows="0" deleteRows="0" sort="0" autoFilter="0" pivotTables="0" objects="1"/>
@@ -2782,12 +2844,12 @@
   </mergeCells>
   <conditionalFormatting sqref="A3">
     <cfRule type="expression" dxfId="10" priority="34">
-      <formula>COUNTA($B3:$J29)&gt;0</formula>
+      <formula>COUNTA($B3:$J30)&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B3:J3">
     <cfRule type="expression" dxfId="10" priority="65">
-      <formula>COUNTA($B3:$J29)&gt;0</formula>
+      <formula>COUNTA($B3:$J30)&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C8">
@@ -2817,7 +2879,7 @@
   </conditionalFormatting>
   <conditionalFormatting sqref="B4:J7">
     <cfRule type="expression" dxfId="10" priority="158">
-      <formula>COUNTA($B4:$J29)&gt;0</formula>
+      <formula>COUNTA($B4:$J30)&gt;0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B8 D8:F8 H8 J8">
@@ -2859,7 +2921,7 @@
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="B25" sqref="B25"/>
+      <selection pane="bottomLeft" activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="22" customHeight="1" outlineLevelCol="2"/>
@@ -2872,7 +2934,7 @@
   <sheetData>
     <row r="1" s="1" customFormat="1" ht="36" customHeight="1" spans="1:3">
       <c r="A1" s="5" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B1" s="5"/>
       <c r="C1" s="5"/>
@@ -2890,7 +2952,7 @@
     </row>
     <row r="3" s="3" customFormat="1" ht="20" customHeight="1" spans="1:3">
       <c r="A3" s="7" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="B3" s="7" t="s">
         <v>6</v>
@@ -2901,7 +2963,7 @@
     </row>
     <row r="4" ht="23" customHeight="1" spans="1:3">
       <c r="A4" s="8" t="str" cm="1">
-        <f ca="1" t="array" ref="A4:C22">_xlfn.GROUPBY(工程量计算底稿!C4:D1964,工程量计算底稿!I4:I1964,_xleta.sum)</f>
+        <f ca="1" t="array" ref="A4:C22">_xlfn.GROUPBY(工程量计算底稿!C4:D1964,工程量计算底稿!I4:I1964,_xleta.sum,1,0)</f>
         <v>给水管道</v>
       </c>
       <c r="B4" s="8" t="str">
@@ -2993,32 +3055,32 @@
         <v>排水管道</v>
       </c>
       <c r="B12" s="8" t="str">
-        <v>UPVC80</v>
+        <v>UPVC50</v>
       </c>
       <c r="C12" s="8">
-        <v>134</v>
+        <v>88</v>
       </c>
     </row>
     <row r="13" ht="21" customHeight="1" spans="1:3">
       <c r="A13" s="8" t="str">
         <v>排水管道</v>
       </c>
-      <c r="B13" s="8">
-        <v>0</v>
+      <c r="B13" s="8" t="str">
+        <v>UPVC80</v>
       </c>
       <c r="C13" s="8">
-        <v>0</v>
+        <v>134</v>
       </c>
     </row>
     <row r="14" ht="21" customHeight="1" spans="1:3">
       <c r="A14" s="8" t="str">
-        <v>卫生洁具</v>
-      </c>
-      <c r="B14" s="8" t="str">
-        <v>地漏</v>
+        <v>排水管道</v>
+      </c>
+      <c r="B14" s="8">
+        <v>0</v>
       </c>
       <c r="C14" s="8">
-        <v>183</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15" ht="21" customHeight="1" spans="1:3">
@@ -3026,10 +3088,10 @@
         <v>卫生洁具</v>
       </c>
       <c r="B15" s="8" t="str">
-        <v>淋浴器</v>
+        <v>地漏</v>
       </c>
       <c r="C15" s="8">
-        <v>153</v>
+        <v>183</v>
       </c>
     </row>
     <row r="16" ht="18" customHeight="1" spans="1:3">
@@ -3037,10 +3099,10 @@
         <v>卫生洁具</v>
       </c>
       <c r="B16" s="8" t="str">
-        <v>清扫口</v>
+        <v>淋浴器</v>
       </c>
       <c r="C16" s="8">
-        <v>276</v>
+        <v>153</v>
       </c>
     </row>
     <row r="17" ht="18" customHeight="1" spans="1:3">
@@ -3048,10 +3110,10 @@
         <v>卫生洁具</v>
       </c>
       <c r="B17" s="8" t="str">
-        <v>洗脸盆</v>
+        <v>清扫口</v>
       </c>
       <c r="C17" s="8">
-        <v>224</v>
+        <v>276</v>
       </c>
     </row>
     <row r="18" ht="18" customHeight="1" spans="1:3">
@@ -3059,10 +3121,10 @@
         <v>卫生洁具</v>
       </c>
       <c r="B18" s="8" t="str">
-        <v>小便器</v>
+        <v>洗脸盆</v>
       </c>
       <c r="C18" s="8">
-        <v>231</v>
+        <v>224</v>
       </c>
     </row>
     <row r="19" ht="18" customHeight="1" spans="1:3">
@@ -3070,26 +3132,26 @@
         <v>卫生洁具</v>
       </c>
       <c r="B19" s="4" t="str">
-        <v>坐便器</v>
+        <v>小便器</v>
       </c>
       <c r="C19" s="4">
-        <v>263</v>
+        <v>231</v>
       </c>
     </row>
     <row r="20" ht="18" customHeight="1" spans="1:3">
       <c r="A20" s="4" t="str">
         <v>卫生洁具</v>
       </c>
-      <c r="B20" s="4">
-        <v>0</v>
+      <c r="B20" s="4" t="str">
+        <v>坐便器</v>
       </c>
       <c r="C20" s="4">
-        <v>0</v>
+        <v>263</v>
       </c>
     </row>
     <row r="21" ht="18" customHeight="1" spans="1:3">
-      <c r="A21" s="4">
-        <v>0</v>
+      <c r="A21" s="4" t="str">
+        <v>卫生洁具</v>
       </c>
       <c r="B21" s="4">
         <v>0</v>
@@ -3099,14 +3161,14 @@
       </c>
     </row>
     <row r="22" ht="18" customHeight="1" spans="1:3">
-      <c r="A22" s="4" t="str">
-        <v>总计</v>
-      </c>
-      <c r="B22" s="4" t="str">
-        <v/>
+      <c r="A22" s="4">
+        <v>0</v>
+      </c>
+      <c r="B22" s="4">
+        <v>0</v>
       </c>
       <c r="C22" s="4">
-        <v>2396.9</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23" ht="13.5"/>
@@ -3125,7 +3187,7 @@
     <row r="36" ht="13.5"/>
     <row r="37" ht="13.5"/>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="UpXgCjHpXXDp9vr8bIQVBt0L9NbdaOryxd8DNW0Qe6aGnWFnuV0CEXcwbKkjC2ISEmZJfmZCM18ryxhVtnRTkg==" saltValue="vq78BZeUb3NU5Du+BO9WFg==" spinCount="100000" sheet="1" formatRows="0" sort="0" autoFilter="0" objects="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="eVWJTuUvZ3f//nxxt78nrh+9LY+UfRwMuGTzt0xQrVennun1h8E8ZqCsjNT33L2p0iKCjSWVYM1HlfUka5xG0Q==" saltValue="OuHsAPMuQ7xW4WBjqV2kYQ==" spinCount="100000" sheet="1" formatRows="0" sort="0" autoFilter="0" objects="1"/>
   <autoFilter xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData" ref="A3:C36" etc:filterBottomFollowUsedRange="0">
     <extLst/>
   </autoFilter>

--- a/file/工程量计算底稿.xlsx
+++ b/file/工程量计算底稿.xlsx
@@ -946,7 +946,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="47">
+  <cellXfs count="40">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1082,35 +1082,7 @@
       <alignment horizontal="left" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center" wrapText="1"/>
-      <protection locked="0" hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0" hidden="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center" wrapText="1"/>
-      <protection hidden="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center" wrapText="1"/>
       <protection hidden="1"/>
     </xf>
@@ -1667,7 +1639,7 @@
     </dxf>
   </dxfs>
   <tableStyles count="2" defaultTableStyle="表样式 1" defaultPivotStyle="PivotStylePreset2_Accent1">
-    <tableStyle name="表样式 1" pivot="0" count="1" xr9:uid="{62C2AA67-A16C-472A-A698-26CC61126BE4}">
+    <tableStyle name="表样式 1" pivot="0" count="1" xr9:uid="{FFE9AE0D-151D-426C-9BED-063B9BBAB6E3}">
       <tableStyleElement type="wholeTable" dxfId="12"/>
     </tableStyle>
     <tableStyle name="PivotStylePreset2_Accent1" table="0" count="10" xr9:uid="{267968C8-6FFD-4C36-ACC1-9EA1FD1885CA}">
@@ -1980,7 +1952,7 @@
     <sheetView zoomScaleSheetLayoutView="115" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="E31" sqref="E31"/>
+      <selection pane="bottomLeft" activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="18" customHeight="1"/>
@@ -2062,7 +2034,7 @@
     </row>
     <row r="4" s="11" customFormat="1" customHeight="1" spans="1:10">
       <c r="A4" s="25">
-        <f>ROW()-3</f>
+        <f t="shared" ref="A4:A30" si="0">ROW()-3</f>
         <v>1</v>
       </c>
       <c r="B4" s="26" t="s">
@@ -2078,19 +2050,19 @@
       </c>
       <c r="F4" s="29"/>
       <c r="G4" s="27" t="e">
-        <f ca="1">IF(ISBLANK(F4),EVALUATE(E4),EVALUATE(E4)*F4)</f>
+        <f ca="1" t="shared" ref="G4:G30" si="1">IF(ISBLANK(F4),EVALUATE(E4),EVALUATE(E4)*F4)</f>
         <v>#VALUE!</v>
       </c>
       <c r="H4" s="29"/>
-      <c r="I4" s="44" t="str">
-        <f ca="1">IF(ISBLANK(H4),IFERROR(G4,"")," ")</f>
+      <c r="I4" s="38" t="str">
+        <f ca="1" t="shared" ref="I4:I30" si="2">IF(ISBLANK(H4),IFERROR(G4,"")," ")</f>
         <v/>
       </c>
       <c r="J4" s="26"/>
     </row>
     <row r="5" s="11" customFormat="1" ht="16" customHeight="1" spans="1:10">
       <c r="A5" s="25">
-        <f>ROW()-3</f>
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
       <c r="B5" s="30"/>
@@ -2106,19 +2078,19 @@
       </c>
       <c r="F5" s="29"/>
       <c r="G5" s="27">
-        <f ca="1">IF(ISBLANK(F5),EVALUATE(E5),EVALUATE(E5)*F5)</f>
+        <f ca="1" t="shared" si="1"/>
         <v>11</v>
       </c>
       <c r="H5" s="29"/>
-      <c r="I5" s="44">
-        <f ca="1">IF(ISBLANK(H5),IFERROR(G5,"")," ")</f>
+      <c r="I5" s="38">
+        <f ca="1" t="shared" si="2"/>
         <v>11</v>
       </c>
       <c r="J5" s="26"/>
     </row>
     <row r="6" s="11" customFormat="1" ht="16" customHeight="1" spans="1:10">
       <c r="A6" s="25">
-        <f>ROW()-3</f>
+        <f t="shared" si="0"/>
         <v>3</v>
       </c>
       <c r="B6" s="30"/>
@@ -2134,19 +2106,19 @@
       </c>
       <c r="F6" s="29"/>
       <c r="G6" s="27">
-        <f ca="1">IF(ISBLANK(F6),EVALUATE(E6),EVALUATE(E6)*F6)</f>
+        <f ca="1" t="shared" si="1"/>
         <v>15</v>
       </c>
       <c r="H6" s="29"/>
-      <c r="I6" s="44">
-        <f ca="1">IF(ISBLANK(H6),IFERROR(G6,"")," ")</f>
+      <c r="I6" s="38">
+        <f ca="1" t="shared" si="2"/>
         <v>15</v>
       </c>
       <c r="J6" s="26"/>
     </row>
     <row r="7" s="11" customFormat="1" ht="16" customHeight="1" spans="1:10">
       <c r="A7" s="25">
-        <f>ROW()-3</f>
+        <f t="shared" si="0"/>
         <v>4</v>
       </c>
       <c r="B7" s="30"/>
@@ -2162,19 +2134,19 @@
       </c>
       <c r="F7" s="29"/>
       <c r="G7" s="27">
-        <f ca="1">IF(ISBLANK(F7),EVALUATE(E7),EVALUATE(E7)*F7)</f>
+        <f ca="1" t="shared" si="1"/>
         <v>3</v>
       </c>
       <c r="H7" s="29"/>
-      <c r="I7" s="44">
-        <f ca="1">IF(ISBLANK(H7),IFERROR(G7,"")," ")</f>
+      <c r="I7" s="38">
+        <f ca="1" t="shared" si="2"/>
         <v>3</v>
       </c>
       <c r="J7" s="26"/>
     </row>
     <row r="8" s="11" customFormat="1" ht="16" customHeight="1" spans="1:10">
       <c r="A8" s="25">
-        <f>ROW()-3</f>
+        <f t="shared" si="0"/>
         <v>5</v>
       </c>
       <c r="B8" s="26"/>
@@ -2190,24 +2162,24 @@
       </c>
       <c r="F8" s="29"/>
       <c r="G8" s="27">
-        <f ca="1">IF(ISBLANK(F8),EVALUATE(E8),EVALUATE(E8)*F8)</f>
+        <f ca="1" t="shared" si="1"/>
         <v>15</v>
       </c>
       <c r="H8" s="29"/>
-      <c r="I8" s="44">
-        <f ca="1">IF(ISBLANK(H8),IFERROR(G8,"")," ")</f>
+      <c r="I8" s="38">
+        <f ca="1" t="shared" si="2"/>
         <v>15</v>
       </c>
       <c r="J8" s="26"/>
     </row>
     <row r="9" s="11" customFormat="1" ht="16" customHeight="1" spans="1:10">
       <c r="A9" s="25">
-        <f>ROW()-3</f>
+        <f t="shared" si="0"/>
         <v>6</v>
       </c>
       <c r="B9" s="26"/>
       <c r="C9" s="27" t="str">
-        <f ca="1">IF(ISBLANK(B9),INDIRECT("C"&amp;ROW()-1),B9)</f>
+        <f ca="1" t="shared" ref="C9:C30" si="3">IF(ISBLANK(B9),INDIRECT("C"&amp;ROW()-1),B9)</f>
         <v>卫生洁具</v>
       </c>
       <c r="D9" s="28" t="s">
@@ -2218,24 +2190,24 @@
       </c>
       <c r="F9" s="29"/>
       <c r="G9" s="27">
-        <f ca="1">IF(ISBLANK(F9),EVALUATE(E9),EVALUATE(E9)*F9)</f>
+        <f ca="1" t="shared" si="1"/>
         <v>17</v>
       </c>
       <c r="H9" s="29"/>
-      <c r="I9" s="44">
-        <f ca="1">IF(ISBLANK(H9),IFERROR(G9,"")," ")</f>
+      <c r="I9" s="38">
+        <f ca="1" t="shared" si="2"/>
         <v>17</v>
       </c>
       <c r="J9" s="26"/>
     </row>
     <row r="10" s="11" customFormat="1" ht="16" customHeight="1" spans="1:10">
       <c r="A10" s="25">
-        <f>ROW()-3</f>
+        <f t="shared" si="0"/>
         <v>7</v>
       </c>
       <c r="B10" s="26"/>
       <c r="C10" s="27" t="str">
-        <f ca="1">IF(ISBLANK(B10),INDIRECT("C"&amp;ROW()-1),B10)</f>
+        <f ca="1" t="shared" si="3"/>
         <v>卫生洁具</v>
       </c>
       <c r="D10" s="28"/>
@@ -2244,24 +2216,24 @@
       </c>
       <c r="F10" s="29"/>
       <c r="G10" s="27" t="e">
-        <f ca="1">IF(ISBLANK(F10),EVALUATE(E10),EVALUATE(E10)*F10)</f>
+        <f ca="1" t="shared" si="1"/>
         <v>#VALUE!</v>
       </c>
       <c r="H10" s="29"/>
-      <c r="I10" s="44" t="str">
-        <f ca="1">IF(ISBLANK(H10),IFERROR(G10,"")," ")</f>
+      <c r="I10" s="38" t="str">
+        <f ca="1" t="shared" si="2"/>
         <v/>
       </c>
       <c r="J10" s="26"/>
     </row>
     <row r="11" s="11" customFormat="1" ht="16" customHeight="1" spans="1:10">
       <c r="A11" s="25">
-        <f>ROW()-3</f>
+        <f t="shared" si="0"/>
         <v>8</v>
       </c>
       <c r="B11" s="26"/>
       <c r="C11" s="27" t="str">
-        <f ca="1">IF(ISBLANK(B11),INDIRECT("C"&amp;ROW()-1),B11)</f>
+        <f ca="1" t="shared" si="3"/>
         <v>卫生洁具</v>
       </c>
       <c r="D11" s="28" t="s">
@@ -2274,24 +2246,24 @@
         <v>9</v>
       </c>
       <c r="G11" s="27">
-        <f ca="1">IF(ISBLANK(F11),EVALUATE(E11),EVALUATE(E11)*F11)</f>
+        <f ca="1" t="shared" si="1"/>
         <v>252</v>
       </c>
       <c r="H11" s="29"/>
-      <c r="I11" s="44">
-        <f ca="1">IF(ISBLANK(H11),IFERROR(G11,"")," ")</f>
+      <c r="I11" s="38">
+        <f ca="1" t="shared" si="2"/>
         <v>252</v>
       </c>
       <c r="J11" s="26"/>
     </row>
     <row r="12" s="11" customFormat="1" ht="16" customHeight="1" spans="1:10">
       <c r="A12" s="25">
-        <f>ROW()-3</f>
+        <f t="shared" si="0"/>
         <v>9</v>
       </c>
       <c r="B12" s="26"/>
       <c r="C12" s="27" t="str">
-        <f ca="1">IF(ISBLANK(B12),INDIRECT("C"&amp;ROW()-1),B12)</f>
+        <f ca="1" t="shared" si="3"/>
         <v>卫生洁具</v>
       </c>
       <c r="D12" s="28" t="s">
@@ -2304,24 +2276,24 @@
         <v>9</v>
       </c>
       <c r="G12" s="27">
-        <f ca="1">IF(ISBLANK(F12),EVALUATE(E12),EVALUATE(E12)*F12)</f>
+        <f ca="1" t="shared" si="1"/>
         <v>153</v>
       </c>
       <c r="H12" s="29"/>
-      <c r="I12" s="44">
-        <f ca="1">IF(ISBLANK(H12),IFERROR(G12,"")," ")</f>
+      <c r="I12" s="38">
+        <f ca="1" t="shared" si="2"/>
         <v>153</v>
       </c>
       <c r="J12" s="26"/>
     </row>
     <row r="13" customHeight="1" spans="1:10">
       <c r="A13" s="31">
-        <f>ROW()-3</f>
+        <f t="shared" si="0"/>
         <v>10</v>
       </c>
       <c r="B13" s="26"/>
       <c r="C13" s="32" t="str">
-        <f ca="1">IF(ISBLANK(B13),INDIRECT("C"&amp;ROW()-1),B13)</f>
+        <f ca="1" t="shared" si="3"/>
         <v>卫生洁具</v>
       </c>
       <c r="D13" s="28" t="s">
@@ -2334,24 +2306,24 @@
         <v>9</v>
       </c>
       <c r="G13" s="32">
-        <f ca="1">IF(ISBLANK(F13),EVALUATE(E13),EVALUATE(E13)*F13)</f>
+        <f ca="1" t="shared" si="1"/>
         <v>216</v>
       </c>
       <c r="H13" s="33"/>
-      <c r="I13" s="44">
-        <f ca="1">IF(ISBLANK(H13),IFERROR(G13,"")," ")</f>
+      <c r="I13" s="38">
+        <f ca="1" t="shared" si="2"/>
         <v>216</v>
       </c>
       <c r="J13" s="35"/>
     </row>
     <row r="14" customHeight="1" spans="1:10">
       <c r="A14" s="31">
-        <f>ROW()-3</f>
+        <f t="shared" si="0"/>
         <v>11</v>
       </c>
       <c r="B14" s="26"/>
       <c r="C14" s="32" t="str">
-        <f ca="1">IF(ISBLANK(B14),INDIRECT("C"&amp;ROW()-1),B14)</f>
+        <f ca="1" t="shared" si="3"/>
         <v>卫生洁具</v>
       </c>
       <c r="D14" s="28" t="s">
@@ -2364,24 +2336,24 @@
         <v>9</v>
       </c>
       <c r="G14" s="32">
-        <f ca="1">IF(ISBLANK(F14),EVALUATE(E14),EVALUATE(E14)*F14)</f>
+        <f ca="1" t="shared" si="1"/>
         <v>180</v>
       </c>
       <c r="H14" s="34"/>
-      <c r="I14" s="44">
-        <f ca="1">IF(ISBLANK(H14),IFERROR(G14,"")," ")</f>
+      <c r="I14" s="38">
+        <f ca="1" t="shared" si="2"/>
         <v>180</v>
       </c>
       <c r="J14" s="35"/>
     </row>
     <row r="15" customHeight="1" spans="1:10">
       <c r="A15" s="31">
-        <f>ROW()-3</f>
+        <f t="shared" si="0"/>
         <v>12</v>
       </c>
       <c r="B15" s="26"/>
       <c r="C15" s="32" t="str">
-        <f ca="1">IF(ISBLANK(B15),INDIRECT("C"&amp;ROW()-1),B15)</f>
+        <f ca="1" t="shared" si="3"/>
         <v>卫生洁具</v>
       </c>
       <c r="D15" s="28" t="s">
@@ -2394,24 +2366,24 @@
         <v>9</v>
       </c>
       <c r="G15" s="32">
-        <f ca="1">IF(ISBLANK(F15),EVALUATE(E15),EVALUATE(E15)*F15)</f>
+        <f ca="1" t="shared" si="1"/>
         <v>261</v>
       </c>
       <c r="H15" s="34"/>
-      <c r="I15" s="44">
-        <f ca="1">IF(ISBLANK(H15),IFERROR(G15,"")," ")</f>
+      <c r="I15" s="38">
+        <f ca="1" t="shared" si="2"/>
         <v>261</v>
       </c>
       <c r="J15" s="35"/>
     </row>
     <row r="16" customHeight="1" spans="1:10">
       <c r="A16" s="31">
-        <f>ROW()-3</f>
+        <f t="shared" si="0"/>
         <v>13</v>
       </c>
       <c r="B16" s="26"/>
       <c r="C16" s="32" t="str">
-        <f ca="1">IF(ISBLANK(B16),INDIRECT("C"&amp;ROW()-1),B16)</f>
+        <f ca="1" t="shared" si="3"/>
         <v>卫生洁具</v>
       </c>
       <c r="D16" s="28" t="s">
@@ -2424,26 +2396,26 @@
         <v>9</v>
       </c>
       <c r="G16" s="32">
-        <f ca="1">IF(ISBLANK(F16),EVALUATE(E16),EVALUATE(E16)*F16)</f>
+        <f ca="1" t="shared" si="1"/>
         <v>207</v>
       </c>
       <c r="H16" s="34"/>
-      <c r="I16" s="45">
-        <f ca="1">IF(ISBLANK(H16),IFERROR(G16,"")," ")</f>
+      <c r="I16" s="39">
+        <f ca="1" t="shared" si="2"/>
         <v>207</v>
       </c>
       <c r="J16" s="35"/>
     </row>
     <row r="17" customHeight="1" spans="1:10">
       <c r="A17" s="31">
-        <f>ROW()-3</f>
+        <f t="shared" si="0"/>
         <v>14</v>
       </c>
       <c r="B17" s="26" t="s">
         <v>32</v>
       </c>
       <c r="C17" s="32" t="str">
-        <f ca="1">IF(ISBLANK(B17),INDIRECT("C"&amp;ROW()-1),B17)</f>
+        <f ca="1" t="shared" si="3"/>
         <v>给水管道</v>
       </c>
       <c r="D17" s="28"/>
@@ -2452,24 +2424,24 @@
       </c>
       <c r="F17" s="29"/>
       <c r="G17" s="32" t="e">
-        <f ca="1">IF(ISBLANK(F17),EVALUATE(E17),EVALUATE(E17)*F17)</f>
+        <f ca="1" t="shared" si="1"/>
         <v>#VALUE!</v>
       </c>
       <c r="H17" s="34"/>
-      <c r="I17" s="45" t="str">
-        <f ca="1">IF(ISBLANK(H17),IFERROR(G17,"")," ")</f>
+      <c r="I17" s="39" t="str">
+        <f ca="1" t="shared" si="2"/>
         <v/>
       </c>
       <c r="J17" s="35"/>
     </row>
     <row r="18" customHeight="1" spans="1:10">
       <c r="A18" s="31">
-        <f>ROW()-3</f>
+        <f t="shared" si="0"/>
         <v>15</v>
       </c>
       <c r="B18" s="35"/>
       <c r="C18" s="32" t="str">
-        <f ca="1">IF(ISBLANK(B18),INDIRECT("C"&amp;ROW()-1),B18)</f>
+        <f ca="1" t="shared" si="3"/>
         <v>给水管道</v>
       </c>
       <c r="D18" s="28" t="s">
@@ -2480,24 +2452,24 @@
       </c>
       <c r="F18" s="29"/>
       <c r="G18" s="32">
-        <f ca="1">IF(ISBLANK(F18),EVALUATE(E18),EVALUATE(E18)*F18)</f>
+        <f ca="1" t="shared" si="1"/>
         <v>26.7</v>
       </c>
       <c r="H18" s="34"/>
-      <c r="I18" s="45">
-        <f ca="1">IF(ISBLANK(H18),IFERROR(G18,"")," ")</f>
+      <c r="I18" s="39">
+        <f ca="1" t="shared" si="2"/>
         <v>26.7</v>
       </c>
       <c r="J18" s="35"/>
     </row>
     <row r="19" customHeight="1" spans="1:10">
       <c r="A19" s="31">
-        <f>ROW()-3</f>
+        <f t="shared" si="0"/>
         <v>16</v>
       </c>
       <c r="B19" s="35"/>
       <c r="C19" s="32" t="str">
-        <f ca="1">IF(ISBLANK(B19),INDIRECT("C"&amp;ROW()-1),B19)</f>
+        <f ca="1" t="shared" si="3"/>
         <v>给水管道</v>
       </c>
       <c r="D19" s="28" t="s">
@@ -2508,24 +2480,24 @@
       </c>
       <c r="F19" s="29"/>
       <c r="G19" s="32">
-        <f ca="1">IF(ISBLANK(F19),EVALUATE(E19),EVALUATE(E19)*F19)</f>
+        <f ca="1" t="shared" si="1"/>
         <v>21.9</v>
       </c>
       <c r="H19" s="34"/>
-      <c r="I19" s="45">
-        <f ca="1">IF(ISBLANK(H19),IFERROR(G19,"")," ")</f>
+      <c r="I19" s="39">
+        <f ca="1" t="shared" si="2"/>
         <v>21.9</v>
       </c>
       <c r="J19" s="35"/>
     </row>
     <row r="20" customHeight="1" spans="1:10">
       <c r="A20" s="31">
-        <f>ROW()-3</f>
+        <f t="shared" si="0"/>
         <v>17</v>
       </c>
       <c r="B20" s="35"/>
       <c r="C20" s="32" t="str">
-        <f ca="1">IF(ISBLANK(B20),INDIRECT("C"&amp;ROW()-1),B20)</f>
+        <f ca="1" t="shared" si="3"/>
         <v>给水管道</v>
       </c>
       <c r="D20" s="28" t="s">
@@ -2536,24 +2508,24 @@
       </c>
       <c r="F20" s="29"/>
       <c r="G20" s="32">
-        <f ca="1">IF(ISBLANK(F20),EVALUATE(E20),EVALUATE(E20)*F20)</f>
+        <f ca="1" t="shared" si="1"/>
         <v>57</v>
       </c>
       <c r="H20" s="34"/>
-      <c r="I20" s="45">
-        <f ca="1">IF(ISBLANK(H20),IFERROR(G20,"")," ")</f>
+      <c r="I20" s="39">
+        <f ca="1" t="shared" si="2"/>
         <v>57</v>
       </c>
       <c r="J20" s="35"/>
     </row>
     <row r="21" customHeight="1" spans="1:10">
       <c r="A21" s="31">
-        <f>ROW()-3</f>
+        <f t="shared" si="0"/>
         <v>18</v>
       </c>
       <c r="B21" s="35"/>
       <c r="C21" s="32" t="str">
-        <f ca="1">IF(ISBLANK(B21),INDIRECT("C"&amp;ROW()-1),B21)</f>
+        <f ca="1" t="shared" si="3"/>
         <v>给水管道</v>
       </c>
       <c r="D21" s="28"/>
@@ -2562,24 +2534,24 @@
       </c>
       <c r="F21" s="29"/>
       <c r="G21" s="32" t="e">
-        <f ca="1">IF(ISBLANK(F21),EVALUATE(E21),EVALUATE(E21)*F21)</f>
+        <f ca="1" t="shared" si="1"/>
         <v>#VALUE!</v>
       </c>
       <c r="H21" s="34"/>
-      <c r="I21" s="45" t="str">
-        <f ca="1">IF(ISBLANK(H21),IFERROR(G21,"")," ")</f>
+      <c r="I21" s="39" t="str">
+        <f ca="1" t="shared" si="2"/>
         <v/>
       </c>
       <c r="J21" s="35"/>
     </row>
     <row r="22" customHeight="1" spans="1:10">
       <c r="A22" s="31">
-        <f>ROW()-3</f>
+        <f t="shared" si="0"/>
         <v>19</v>
       </c>
       <c r="B22" s="35"/>
       <c r="C22" s="32" t="str">
-        <f ca="1">IF(ISBLANK(B22),INDIRECT("C"&amp;ROW()-1),B22)</f>
+        <f ca="1" t="shared" si="3"/>
         <v>给水管道</v>
       </c>
       <c r="D22" s="28" t="s">
@@ -2592,24 +2564,24 @@
         <v>9</v>
       </c>
       <c r="G22" s="32">
-        <f ca="1">IF(ISBLANK(F22),EVALUATE(E22),EVALUATE(E22)*F22)</f>
+        <f ca="1" t="shared" si="1"/>
         <v>183.6</v>
       </c>
       <c r="H22" s="34"/>
-      <c r="I22" s="45">
-        <f ca="1">IF(ISBLANK(H22),IFERROR(G22,"")," ")</f>
+      <c r="I22" s="39">
+        <f ca="1" t="shared" si="2"/>
         <v>183.6</v>
       </c>
       <c r="J22" s="35"/>
     </row>
     <row r="23" customHeight="1" spans="1:10">
       <c r="A23" s="31">
-        <f>ROW()-3</f>
+        <f t="shared" si="0"/>
         <v>20</v>
       </c>
       <c r="B23" s="35"/>
       <c r="C23" s="32" t="str">
-        <f ca="1">IF(ISBLANK(B23),INDIRECT("C"&amp;ROW()-1),B23)</f>
+        <f ca="1" t="shared" si="3"/>
         <v>给水管道</v>
       </c>
       <c r="D23" s="28" t="s">
@@ -2622,24 +2594,24 @@
         <v>9</v>
       </c>
       <c r="G23" s="32">
-        <f ca="1">IF(ISBLANK(F23),EVALUATE(E23),EVALUATE(E23)*F23)</f>
+        <f ca="1" t="shared" si="1"/>
         <v>203.4</v>
       </c>
       <c r="H23" s="34"/>
-      <c r="I23" s="45">
-        <f ca="1">IF(ISBLANK(H23),IFERROR(G23,"")," ")</f>
+      <c r="I23" s="39">
+        <f ca="1" t="shared" si="2"/>
         <v>203.4</v>
       </c>
       <c r="J23" s="35"/>
     </row>
     <row r="24" customHeight="1" spans="1:10">
       <c r="A24" s="31">
-        <f>ROW()-3</f>
+        <f t="shared" si="0"/>
         <v>21</v>
       </c>
       <c r="B24" s="35"/>
       <c r="C24" s="36" t="str">
-        <f ca="1">IF(ISBLANK(B24),INDIRECT("C"&amp;ROW()-1),B24)</f>
+        <f ca="1" t="shared" si="3"/>
         <v>给水管道</v>
       </c>
       <c r="D24" s="35" t="s">
@@ -2652,24 +2624,24 @@
         <v>9</v>
       </c>
       <c r="G24" s="36">
-        <f ca="1">IF(ISBLANK(F24),EVALUATE(E24),EVALUATE(E24)*F24)</f>
+        <f ca="1" t="shared" si="1"/>
         <v>216</v>
       </c>
       <c r="H24" s="34"/>
-      <c r="I24" s="45">
-        <f ca="1">IF(ISBLANK(H24),IFERROR(G24,"")," ")</f>
+      <c r="I24" s="39">
+        <f ca="1" t="shared" si="2"/>
         <v>216</v>
       </c>
       <c r="J24" s="35"/>
     </row>
     <row r="25" customHeight="1" spans="1:10">
       <c r="A25" s="31">
-        <f>ROW()-3</f>
+        <f t="shared" si="0"/>
         <v>22</v>
       </c>
       <c r="B25" s="35"/>
       <c r="C25" s="36" t="str">
-        <f ca="1">IF(ISBLANK(B25),INDIRECT("C"&amp;ROW()-1),B25)</f>
+        <f ca="1" t="shared" si="3"/>
         <v>给水管道</v>
       </c>
       <c r="D25" s="35" t="s">
@@ -2682,24 +2654,24 @@
         <v>9</v>
       </c>
       <c r="G25" s="36">
-        <f ca="1">IF(ISBLANK(F25),EVALUATE(E25),EVALUATE(E25)*F25)</f>
+        <f ca="1" t="shared" si="1"/>
         <v>61.2</v>
       </c>
       <c r="H25" s="34"/>
-      <c r="I25" s="45">
-        <f ca="1">IF(ISBLANK(H25),IFERROR(G25,"")," ")</f>
+      <c r="I25" s="39">
+        <f ca="1" t="shared" si="2"/>
         <v>61.2</v>
       </c>
       <c r="J25" s="35"/>
     </row>
     <row r="26" customHeight="1" spans="1:10">
       <c r="A26" s="31">
-        <f>ROW()-3</f>
+        <f t="shared" si="0"/>
         <v>23</v>
       </c>
       <c r="B26" s="35"/>
       <c r="C26" s="36" t="str">
-        <f ca="1">IF(ISBLANK(B26),INDIRECT("C"&amp;ROW()-1),B26)</f>
+        <f ca="1" t="shared" si="3"/>
         <v>给水管道</v>
       </c>
       <c r="D26" s="35" t="s">
@@ -2712,50 +2684,50 @@
         <v>9</v>
       </c>
       <c r="G26" s="36">
-        <f ca="1">IF(ISBLANK(F26),EVALUATE(E26),EVALUATE(E26)*F26)</f>
+        <f ca="1" t="shared" si="1"/>
         <v>107.1</v>
       </c>
       <c r="H26" s="34"/>
-      <c r="I26" s="45">
-        <f ca="1">IF(ISBLANK(H26),IFERROR(G26,"")," ")</f>
+      <c r="I26" s="39">
+        <f ca="1" t="shared" si="2"/>
         <v>107.1</v>
       </c>
       <c r="J26" s="35"/>
     </row>
     <row r="27" customHeight="1" spans="1:10">
       <c r="A27" s="31">
-        <f>ROW()-3</f>
+        <f t="shared" si="0"/>
         <v>24</v>
       </c>
       <c r="B27" s="35" t="s">
         <v>47</v>
       </c>
       <c r="C27" s="36" t="str">
-        <f ca="1">IF(ISBLANK(B27),INDIRECT("C"&amp;ROW()-1),B27)</f>
+        <f ca="1" t="shared" si="3"/>
         <v>排水管道</v>
       </c>
       <c r="D27" s="35"/>
       <c r="E27" s="37"/>
       <c r="F27" s="33"/>
       <c r="G27" s="36" t="e">
-        <f ca="1">IF(ISBLANK(F27),EVALUATE(E27),EVALUATE(E27)*F27)</f>
+        <f ca="1" t="shared" si="1"/>
         <v>#VALUE!</v>
       </c>
       <c r="H27" s="34"/>
-      <c r="I27" s="45" t="str">
-        <f ca="1">IF(ISBLANK(H27),IFERROR(G27,"")," ")</f>
+      <c r="I27" s="39" t="str">
+        <f ca="1" t="shared" si="2"/>
         <v/>
       </c>
       <c r="J27" s="35"/>
     </row>
     <row r="28" customHeight="1" spans="1:10">
       <c r="A28" s="31">
-        <f>ROW()-3</f>
+        <f t="shared" si="0"/>
         <v>25</v>
       </c>
       <c r="B28" s="35"/>
       <c r="C28" s="36" t="str">
-        <f ca="1">IF(ISBLANK(B28),INDIRECT("C"&amp;ROW()-1),B28)</f>
+        <f ca="1" t="shared" si="3"/>
         <v>排水管道</v>
       </c>
       <c r="D28" s="35" t="s">
@@ -2766,24 +2738,24 @@
       </c>
       <c r="F28" s="33"/>
       <c r="G28" s="36">
-        <f ca="1">IF(ISBLANK(F28),EVALUATE(E28),EVALUATE(E28)*F28)</f>
+        <f ca="1" t="shared" si="1"/>
         <v>56</v>
       </c>
       <c r="H28" s="34"/>
-      <c r="I28" s="45">
-        <f ca="1">IF(ISBLANK(H28),IFERROR(G28,"")," ")</f>
+      <c r="I28" s="39">
+        <f ca="1" t="shared" si="2"/>
         <v>56</v>
       </c>
       <c r="J28" s="35"/>
     </row>
     <row r="29" customHeight="1" spans="1:10">
       <c r="A29" s="31">
-        <f>ROW()-3</f>
+        <f t="shared" si="0"/>
         <v>26</v>
       </c>
       <c r="B29" s="35"/>
       <c r="C29" s="36" t="str">
-        <f ca="1">IF(ISBLANK(B29),INDIRECT("C"&amp;ROW()-1),B29)</f>
+        <f ca="1" t="shared" si="3"/>
         <v>排水管道</v>
       </c>
       <c r="D29" s="35" t="s">
@@ -2794,43 +2766,43 @@
       </c>
       <c r="F29" s="33"/>
       <c r="G29" s="36">
-        <f ca="1">IF(ISBLANK(F29),EVALUATE(E29),EVALUATE(E29)*F29)</f>
+        <f ca="1" t="shared" si="1"/>
         <v>134</v>
       </c>
       <c r="H29" s="34"/>
-      <c r="I29" s="45">
-        <f ca="1">IF(ISBLANK(H29),IFERROR(G29,"")," ")</f>
+      <c r="I29" s="39">
+        <f ca="1" t="shared" si="2"/>
         <v>134</v>
       </c>
       <c r="J29" s="35"/>
     </row>
     <row r="30" customHeight="1" spans="1:10">
-      <c r="A30" s="38">
-        <f>ROW()-3</f>
+      <c r="A30" s="31">
+        <f t="shared" si="0"/>
         <v>27</v>
       </c>
-      <c r="B30" s="39"/>
-      <c r="C30" s="40" t="str">
-        <f ca="1">IF(ISBLANK(B30),INDIRECT("C"&amp;ROW()-1),B30)</f>
+      <c r="B30" s="35"/>
+      <c r="C30" s="36" t="str">
+        <f ca="1" t="shared" si="3"/>
         <v>排水管道</v>
       </c>
-      <c r="D30" s="39" t="s">
+      <c r="D30" s="35" t="s">
         <v>51</v>
       </c>
-      <c r="E30" s="41" t="s">
+      <c r="E30" s="37" t="s">
         <v>52</v>
       </c>
-      <c r="F30" s="42"/>
-      <c r="G30" s="40">
-        <f ca="1">IF(ISBLANK(F30),EVALUATE(E30),EVALUATE(E30)*F30)</f>
+      <c r="F30" s="33"/>
+      <c r="G30" s="36">
+        <f ca="1" t="shared" si="1"/>
         <v>88</v>
       </c>
-      <c r="H30" s="43"/>
-      <c r="I30" s="46">
-        <f ca="1">IF(ISBLANK(H30),IFERROR(G30,"")," ")</f>
+      <c r="H30" s="34"/>
+      <c r="I30" s="39">
+        <f ca="1" t="shared" si="2"/>
         <v>88</v>
       </c>
-      <c r="J30" s="39"/>
+      <c r="J30" s="35"/>
     </row>
   </sheetData>
   <sheetProtection algorithmName="SHA-512" hashValue="b8RrwQ8RFP+L2nlFE3z4p/SRht1f54Cu7iqPmMbF7DQyoZAWJFA721qfrZ45RgZGTDyRfcke33QAnJQYkeKauw==" saltValue="Ct/0J66qJDYTLoqupGChPA==" spinCount="100000" sheet="1" formatCells="0" formatRows="0" insertRows="0" deleteRows="0" sort="0" autoFilter="0" pivotTables="0" objects="1"/>
@@ -2921,7 +2893,7 @@
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="B14" sqref="B14"/>
+      <selection pane="bottomLeft" activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="22" customHeight="1" outlineLevelCol="2"/>
@@ -2963,7 +2935,7 @@
     </row>
     <row r="4" ht="23" customHeight="1" spans="1:3">
       <c r="A4" s="8" t="str" cm="1">
-        <f ca="1" t="array" ref="A4:C22">_xlfn.GROUPBY(工程量计算底稿!C4:D1964,工程量计算底稿!I4:I1964,_xleta.sum,1,0)</f>
+        <f ca="1" t="array" ref="A4:C23">_xlfn.GROUPBY(工程量计算底稿!C4:D1964,工程量计算底稿!I4:I1964,_xleta.sum)</f>
         <v>给水管道</v>
       </c>
       <c r="B4" s="8" t="str">
@@ -3171,7 +3143,17 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" ht="13.5"/>
+    <row r="23" ht="13.5" spans="1:3">
+      <c r="A23" s="4" t="str">
+        <v>总计</v>
+      </c>
+      <c r="B23" s="4" t="str">
+        <v/>
+      </c>
+      <c r="C23" s="4">
+        <v>2484.9</v>
+      </c>
+    </row>
     <row r="24" ht="18" customHeight="1"/>
     <row r="25" ht="13.5"/>
     <row r="26" ht="21" customHeight="1"/>
@@ -3187,7 +3169,7 @@
     <row r="36" ht="13.5"/>
     <row r="37" ht="13.5"/>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="eVWJTuUvZ3f//nxxt78nrh+9LY+UfRwMuGTzt0xQrVennun1h8E8ZqCsjNT33L2p0iKCjSWVYM1HlfUka5xG0Q==" saltValue="OuHsAPMuQ7xW4WBjqV2kYQ==" spinCount="100000" sheet="1" formatRows="0" sort="0" autoFilter="0" objects="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="f6a5cPxLchxrHRcQ5TaPFRxTyCHDddxDp1lVXeKUQurjkLzSTmf3wkleuiNA9KuGOEXDdP8UgpjZMKqcih03Bw==" saltValue="aFcI2EzcqSxbG4YuVdCG9w==" spinCount="100000" sheet="1" formatRows="0" sort="0" autoFilter="0" objects="1"/>
   <autoFilter xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData" ref="A3:C36" etc:filterBottomFollowUsedRange="0">
     <extLst/>
   </autoFilter>
